--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14620" windowWidth="51200" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33060" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CARTE-DES-VINS" sheetId="1" r:id="rId1"/>
+    <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
+    <sheet name="CARTE-DES-VINS" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>rivaz</t>
   </si>
@@ -44,9 +45,6 @@
     <t>DOMAINE</t>
   </si>
   <si>
-    <t>VIGNERON</t>
-  </si>
-  <si>
     <t>AOC</t>
   </si>
   <si>
@@ -65,27 +63,12 @@
     <t>saint-saphorin</t>
   </si>
   <si>
-    <t>CÉPAGE</t>
-  </si>
-  <si>
     <t>NOM</t>
   </si>
   <si>
-    <t>INFORMATIONS COMPLÉMENTAIRES</t>
-  </si>
-  <si>
     <t>COULEUR</t>
   </si>
   <si>
-    <t>RÉGION</t>
-  </si>
-  <si>
-    <t>ANNÉE</t>
-  </si>
-  <si>
-    <t>PRIX (CHF/5 dl)</t>
-  </si>
-  <si>
     <t>pinot noir</t>
   </si>
   <si>
@@ -128,7 +111,34 @@
     <t>cornalin</t>
   </si>
   <si>
-    <t>CÉPAGE 2</t>
+    <t>ID_VIGNERON</t>
+  </si>
+  <si>
+    <t>CEPAGE</t>
+  </si>
+  <si>
+    <t>CEPAGE_2</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>ANNEE</t>
+  </si>
+  <si>
+    <t>INFORMATIONS_COMPLEMENTAIRES</t>
+  </si>
+  <si>
+    <t>PRIX</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://deuxfoiscinq.ch/blog/bagnoud-vins/</t>
+  </si>
+  <si>
+    <t>http://deuxfoiscinq.ch/blog/rivaz-cave-des-dolles/</t>
   </si>
 </sst>
 </file>
@@ -180,7 +190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,12 +222,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="66">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -233,6 +286,24 @@
     <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -248,11 +319,83 @@
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -265,21 +408,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:L7" totalsRowShown="0">
-  <autoFilter ref="A1:L7"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="DOMAINE"/>
-    <tableColumn id="2" name="CAVE"/>
-    <tableColumn id="3" name="VIGNERON"/>
-    <tableColumn id="4" name="AOC"/>
-    <tableColumn id="5" name="CÉPAGE"/>
-    <tableColumn id="6" name="NOM"/>
-    <tableColumn id="7" name="CÉPAGE 2"/>
-    <tableColumn id="8" name="COULEUR"/>
-    <tableColumn id="9" name="RÉGION"/>
-    <tableColumn id="10" name="ANNÉE"/>
-    <tableColumn id="11" name="INFORMATIONS COMPLÉMENTAIRES"/>
-    <tableColumn id="12" name="PRIX (CHF/5 dl)" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:E3"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="6"/>
+    <tableColumn id="4" name="DOMAINE" dataDxfId="5"/>
+    <tableColumn id="2" name="CAVE" dataDxfId="4"/>
+    <tableColumn id="5" name="NOM" dataDxfId="0"/>
+    <tableColumn id="3" name="URL" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:J7"/>
+  <tableColumns count="10">
+    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="18"/>
+    <tableColumn id="4" name="AOC" dataDxfId="17"/>
+    <tableColumn id="5" name="CEPAGE" dataDxfId="16"/>
+    <tableColumn id="6" name="NOM" dataDxfId="15"/>
+    <tableColumn id="7" name="CEPAGE_2" dataDxfId="14"/>
+    <tableColumn id="8" name="COULEUR" dataDxfId="13"/>
+    <tableColumn id="9" name="REGION" dataDxfId="12"/>
+    <tableColumn id="10" name="ANNEE" dataDxfId="11"/>
+    <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="10"/>
+    <tableColumn id="12" name="PRIX" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,291 +703,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J4" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
+      <c r="J5" s="2">
+        <v>10.5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>2016</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1">
-        <v>10</v>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>2016</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>2016</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
         <v>2015</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6">
-        <v>2015</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7">
-        <v>2015</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
         <v>16</v>
       </c>
     </row>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33060" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33060" windowHeight="28340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>rivaz</t>
   </si>
@@ -139,6 +139,27 @@
   </si>
   <si>
     <t>http://deuxfoiscinq.ch/blog/rivaz-cave-des-dolles/</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>imhof saint-saphorin les déserts 2016</t>
+  </si>
+  <si>
+    <t>imhof pinot noir 2016</t>
+  </si>
+  <si>
+    <t>imhof saint-saphorin gamaret-garanoir 2016</t>
+  </si>
+  <si>
+    <t>bagnoud pinot gris coteaux de sierre 2015</t>
+  </si>
+  <si>
+    <t>bagnoud chenin blanc coteaux de sierre 2015</t>
+  </si>
+  <si>
+    <t>bagnoud cornalin coteaux de sierre 2015</t>
   </si>
 </sst>
 </file>
@@ -338,7 +359,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -408,33 +432,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="6"/>
-    <tableColumn id="4" name="DOMAINE" dataDxfId="5"/>
-    <tableColumn id="2" name="CAVE" dataDxfId="4"/>
-    <tableColumn id="5" name="NOM" dataDxfId="0"/>
-    <tableColumn id="3" name="URL" dataDxfId="3"/>
+    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="7"/>
+    <tableColumn id="4" name="DOMAINE" dataDxfId="6"/>
+    <tableColumn id="2" name="CAVE" dataDxfId="5"/>
+    <tableColumn id="5" name="NOM" dataDxfId="1"/>
+    <tableColumn id="3" name="URL" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:J7"/>
-  <tableColumns count="10">
-    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="18"/>
-    <tableColumn id="4" name="AOC" dataDxfId="17"/>
-    <tableColumn id="5" name="CEPAGE" dataDxfId="16"/>
-    <tableColumn id="6" name="NOM" dataDxfId="15"/>
-    <tableColumn id="7" name="CEPAGE_2" dataDxfId="14"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="13"/>
-    <tableColumn id="9" name="REGION" dataDxfId="12"/>
-    <tableColumn id="10" name="ANNEE" dataDxfId="11"/>
-    <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="10"/>
-    <tableColumn id="12" name="PRIX" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:K7"/>
+  <tableColumns count="11">
+    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="19"/>
+    <tableColumn id="4" name="AOC" dataDxfId="18"/>
+    <tableColumn id="5" name="CEPAGE" dataDxfId="17"/>
+    <tableColumn id="6" name="NOM" dataDxfId="16"/>
+    <tableColumn id="7" name="CEPAGE_2" dataDxfId="15"/>
+    <tableColumn id="8" name="COULEUR" dataDxfId="14"/>
+    <tableColumn id="9" name="REGION" dataDxfId="13"/>
+    <tableColumn id="10" name="ANNEE" dataDxfId="12"/>
+    <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="11"/>
+    <tableColumn id="1" name="REFERENCE" dataDxfId="0"/>
+    <tableColumn id="12" name="PRIX" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -705,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,15 +810,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -801,12 +826,13 @@
     <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -835,10 +861,13 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -866,11 +895,14 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -898,11 +930,14 @@
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -930,11 +965,14 @@
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -962,11 +1000,14 @@
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -994,11 +1035,14 @@
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1026,7 +1070,10 @@
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
         <v>16</v>
       </c>
     </row>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33060" windowHeight="28340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -364,47 +364,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -432,34 +432,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="7"/>
-    <tableColumn id="4" name="DOMAINE" dataDxfId="6"/>
-    <tableColumn id="2" name="CAVE" dataDxfId="5"/>
-    <tableColumn id="5" name="NOM" dataDxfId="1"/>
-    <tableColumn id="3" name="URL" dataDxfId="4"/>
+    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="17"/>
+    <tableColumn id="4" name="DOMAINE" dataDxfId="16"/>
+    <tableColumn id="2" name="CAVE" dataDxfId="15"/>
+    <tableColumn id="5" name="NOM" dataDxfId="14"/>
+    <tableColumn id="3" name="URL" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K7"/>
   <tableColumns count="11">
-    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="19"/>
-    <tableColumn id="4" name="AOC" dataDxfId="18"/>
-    <tableColumn id="5" name="CEPAGE" dataDxfId="17"/>
-    <tableColumn id="6" name="NOM" dataDxfId="16"/>
-    <tableColumn id="7" name="CEPAGE_2" dataDxfId="15"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="14"/>
-    <tableColumn id="9" name="REGION" dataDxfId="13"/>
-    <tableColumn id="10" name="ANNEE" dataDxfId="12"/>
-    <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="11"/>
+    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="10"/>
     <tableColumn id="1" name="REFERENCE" dataDxfId="0"/>
-    <tableColumn id="12" name="PRIX" dataDxfId="10"/>
+    <tableColumn id="4" name="AOC" dataDxfId="9"/>
+    <tableColumn id="5" name="CEPAGE" dataDxfId="8"/>
+    <tableColumn id="6" name="NOM" dataDxfId="7"/>
+    <tableColumn id="7" name="CEPAGE_2" dataDxfId="6"/>
+    <tableColumn id="8" name="COULEUR" dataDxfId="5"/>
+    <tableColumn id="9" name="REGION" dataDxfId="4"/>
+    <tableColumn id="10" name="ANNEE" dataDxfId="3"/>
+    <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="2"/>
+    <tableColumn id="12" name="PRIX" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,17 +819,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -837,31 +838,31 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>33</v>
@@ -872,31 +873,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2016</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K2" s="2">
         <v>10</v>
@@ -907,31 +908,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2016</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="K3" s="2">
         <v>10</v>
@@ -942,31 +943,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2016</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="K4" s="2">
         <v>13</v>
@@ -977,31 +978,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2015</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K5" s="2">
         <v>10.5</v>
@@ -1012,31 +1013,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2015</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="2">
         <v>10.5</v>
@@ -1047,31 +1048,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2015</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K7" s="2">
         <v>16</v>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="16360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
     <sheet name="CARTE-DES-VINS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>rivaz</t>
   </si>
@@ -45,21 +40,12 @@
     <t>DOMAINE</t>
   </si>
   <si>
-    <t>AOC</t>
-  </si>
-  <si>
-    <t>les déserts</t>
-  </si>
-  <si>
     <t>chasselas</t>
   </si>
   <si>
     <t>blanc</t>
   </si>
   <si>
-    <t>lavaux</t>
-  </si>
-  <si>
     <t>saint-saphorin</t>
   </si>
   <si>
@@ -78,9 +64,6 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>élevé en fût</t>
-  </si>
-  <si>
     <t>gamaret-garanoir</t>
   </si>
   <si>
@@ -99,12 +82,6 @@
     <t>coteaux de sierre</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>chenin blanc</t>
-  </si>
-  <si>
     <t>chenin</t>
   </si>
   <si>
@@ -117,12 +94,6 @@
     <t>CEPAGE</t>
   </si>
   <si>
-    <t>CEPAGE_2</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
     <t>ANNEE</t>
   </si>
   <si>
@@ -160,6 +131,15 @@
   </si>
   <si>
     <t>bagnoud cornalin coteaux de sierre 2015</t>
+  </si>
+  <si>
+    <t>appellation</t>
+  </si>
+  <si>
+    <t>fût</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -211,7 +191,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,6 +258,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -291,7 +273,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="68">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -357,9 +339,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -383,13 +367,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -432,31 +410,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="17"/>
-    <tableColumn id="4" name="DOMAINE" dataDxfId="16"/>
-    <tableColumn id="2" name="CAVE" dataDxfId="15"/>
-    <tableColumn id="5" name="NOM" dataDxfId="14"/>
-    <tableColumn id="3" name="URL" dataDxfId="13"/>
+    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="15"/>
+    <tableColumn id="4" name="DOMAINE" dataDxfId="14"/>
+    <tableColumn id="2" name="CAVE" dataDxfId="13"/>
+    <tableColumn id="5" name="NOM" dataDxfId="12"/>
+    <tableColumn id="3" name="URL" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K7"/>
-  <tableColumns count="11">
-    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="10"/>
-    <tableColumn id="1" name="REFERENCE" dataDxfId="0"/>
-    <tableColumn id="4" name="AOC" dataDxfId="9"/>
-    <tableColumn id="5" name="CEPAGE" dataDxfId="8"/>
-    <tableColumn id="6" name="NOM" dataDxfId="7"/>
-    <tableColumn id="7" name="CEPAGE_2" dataDxfId="6"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="5"/>
-    <tableColumn id="9" name="REGION" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I7"/>
+  <tableColumns count="9">
+    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="8"/>
+    <tableColumn id="1" name="REFERENCE" dataDxfId="7"/>
+    <tableColumn id="5" name="appellation" dataDxfId="6"/>
+    <tableColumn id="7" name="CEPAGE" dataDxfId="5"/>
+    <tableColumn id="8" name="COULEUR" dataDxfId="4"/>
+    <tableColumn id="2" name="fût" dataDxfId="0"/>
     <tableColumn id="10" name="ANNEE" dataDxfId="3"/>
     <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="2"/>
     <tableColumn id="12" name="PRIX" dataDxfId="1"/>
@@ -508,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -543,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -720,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -730,11 +706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
@@ -744,9 +720,9 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -755,13 +731,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -775,24 +751,24 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -805,284 +781,232 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="1">
+        <v>2016</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2016</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1">
         <v>2016</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="I4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2015</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2015</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2015</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="16360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3120" yWindow="580" windowWidth="27960" windowHeight="16360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>rivaz</t>
   </si>
@@ -43,27 +43,15 @@
     <t>chasselas</t>
   </si>
   <si>
-    <t>blanc</t>
-  </si>
-  <si>
     <t>saint-saphorin</t>
   </si>
   <si>
     <t>NOM</t>
   </si>
   <si>
-    <t>COULEUR</t>
-  </si>
-  <si>
     <t>pinot noir</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
     <t>gamaret-garanoir</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>ANNEE</t>
   </si>
   <si>
-    <t>INFORMATIONS_COMPLEMENTAIRES</t>
-  </si>
-  <si>
     <t>PRIX</t>
   </si>
   <si>
@@ -115,31 +100,178 @@
     <t>REFERENCE</t>
   </si>
   <si>
-    <t>imhof saint-saphorin les déserts 2016</t>
-  </si>
-  <si>
-    <t>imhof pinot noir 2016</t>
-  </si>
-  <si>
-    <t>imhof saint-saphorin gamaret-garanoir 2016</t>
-  </si>
-  <si>
-    <t>bagnoud pinot gris coteaux de sierre 2015</t>
-  </si>
-  <si>
-    <t>bagnoud chenin blanc coteaux de sierre 2015</t>
-  </si>
-  <si>
-    <t>bagnoud cornalin coteaux de sierre 2015</t>
-  </si>
-  <si>
     <t>appellation</t>
   </si>
   <si>
-    <t>fût</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>steiner parfum de vigne</t>
+  </si>
+  <si>
+    <t>la côte</t>
+  </si>
+  <si>
+    <t>chasselas grain blanc</t>
+  </si>
+  <si>
+    <t>œil de perdrix</t>
+  </si>
+  <si>
+    <t>château de vincy</t>
+  </si>
+  <si>
+    <t>imhof cave des dolles</t>
+  </si>
+  <si>
+    <t>fully</t>
+  </si>
+  <si>
+    <t>petite arvine de seyes</t>
+  </si>
+  <si>
+    <t>amigne</t>
+  </si>
+  <si>
+    <t>gamay vieilles vignes</t>
+  </si>
+  <si>
+    <t>delestraz cave des amandiers</t>
+  </si>
+  <si>
+    <t>cave du pasquier</t>
+  </si>
+  <si>
+    <t>bonvillars</t>
+  </si>
+  <si>
+    <t>chasselas vieilles vignes</t>
+  </si>
+  <si>
+    <t>œil de pedrix</t>
+  </si>
+  <si>
+    <t>cave mirabilis</t>
+  </si>
+  <si>
+    <t>côtes de l'orbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imhof cave des dolles </t>
+  </si>
+  <si>
+    <t>domaine dillet</t>
+  </si>
+  <si>
+    <t>yvorne</t>
+  </si>
+  <si>
+    <t>yvorne spécialité</t>
+  </si>
+  <si>
+    <t>domaine blondel</t>
+  </si>
+  <si>
+    <t>villette champ-noé</t>
+  </si>
+  <si>
+    <t>épesses</t>
+  </si>
+  <si>
+    <t>la perle</t>
+  </si>
+  <si>
+    <t>calamin</t>
+  </si>
+  <si>
+    <t>blanc d'arpège</t>
+  </si>
+  <si>
+    <t>dézaley</t>
+  </si>
+  <si>
+    <t>côtes des abbayes</t>
+  </si>
+  <si>
+    <t>rosé la ronde</t>
+  </si>
+  <si>
+    <t>château de praz</t>
+  </si>
+  <si>
+    <t>vully</t>
+  </si>
+  <si>
+    <t>gamaret</t>
+  </si>
+  <si>
+    <t>domaine trois étoiles</t>
+  </si>
+  <si>
+    <t>peissy</t>
+  </si>
+  <si>
+    <t>peissy fruité</t>
+  </si>
+  <si>
+    <t>aligoté</t>
+  </si>
+  <si>
+    <t>gondebaud</t>
+  </si>
+  <si>
+    <t>épuisé</t>
+  </si>
+  <si>
+    <t>disponible en 70cl</t>
+  </si>
+  <si>
+    <t>remarques</t>
+  </si>
+  <si>
+    <t>élevé en fût</t>
+  </si>
+  <si>
+    <t>nbre</t>
+  </si>
+  <si>
+    <t>dully</t>
+  </si>
+  <si>
+    <t>parfum de vigne</t>
+  </si>
+  <si>
+    <t>jean-jacques steiner</t>
+  </si>
+  <si>
+    <t>saillon</t>
+  </si>
+  <si>
+    <t>cave des amandiers</t>
+  </si>
+  <si>
+    <t>alexandre deletraz</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>martial du pasquier</t>
+  </si>
+  <si>
+    <t>agiez</t>
+  </si>
+  <si>
+    <t>pierre-yves poget</t>
+  </si>
+  <si>
+    <t>eric minod</t>
+  </si>
+  <si>
+    <t>cully</t>
+  </si>
+  <si>
+    <t>jean-luc et louis blondel</t>
+  </si>
+  <si>
+    <t>marylène et louis bovard-chervet</t>
   </si>
 </sst>
 </file>
@@ -149,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +305,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,8 +329,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -260,8 +419,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -272,8 +443,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="80">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -341,11 +527,33 @@
     <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
@@ -361,19 +569,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -410,32 +606,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="15"/>
-    <tableColumn id="4" name="DOMAINE" dataDxfId="14"/>
-    <tableColumn id="2" name="CAVE" dataDxfId="13"/>
-    <tableColumn id="5" name="NOM" dataDxfId="12"/>
-    <tableColumn id="3" name="URL" dataDxfId="11"/>
+    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="14"/>
+    <tableColumn id="4" name="DOMAINE" dataDxfId="13"/>
+    <tableColumn id="2" name="CAVE" dataDxfId="12"/>
+    <tableColumn id="5" name="NOM" dataDxfId="11"/>
+    <tableColumn id="3" name="URL" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I7"/>
-  <tableColumns count="9">
-    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="8"/>
-    <tableColumn id="1" name="REFERENCE" dataDxfId="7"/>
-    <tableColumn id="5" name="appellation" dataDxfId="6"/>
-    <tableColumn id="7" name="CEPAGE" dataDxfId="5"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="4"/>
-    <tableColumn id="2" name="fût" dataDxfId="0"/>
-    <tableColumn id="10" name="ANNEE" dataDxfId="3"/>
-    <tableColumn id="11" name="INFORMATIONS_COMPLEMENTAIRES" dataDxfId="2"/>
-    <tableColumn id="12" name="PRIX" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H37" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:H37"/>
+  <tableColumns count="8">
+    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
+    <tableColumn id="1" name="REFERENCE" dataDxfId="8"/>
+    <tableColumn id="5" name="appellation" dataDxfId="7"/>
+    <tableColumn id="7" name="CEPAGE" dataDxfId="6"/>
+    <tableColumn id="10" name="ANNEE" dataDxfId="5"/>
+    <tableColumn id="12" name="PRIX" dataDxfId="4"/>
+    <tableColumn id="6" name="nbre" dataDxfId="0"/>
+    <tableColumn id="4" name="remarques" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,25 +899,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -731,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -751,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -759,17 +954,122 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -791,83 +1091,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A19" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="E2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -875,127 +1167,769 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" s="2"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I4" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
         <v>2015</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="F5" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="2"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
         <v>2015</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="F6" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="2"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E13" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="5">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2">
-        <v>16</v>
-      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F20" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F21" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F22" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F23" s="5">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F26" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F27" s="5">
+        <v>14</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F30" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F31" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F32" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F33" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F34" s="5">
+        <v>7</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F35" s="5">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F36" s="5">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F37" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27740" windowHeight="16960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>rivaz</t>
   </si>
@@ -400,6 +395,18 @@
   </si>
   <si>
     <t>œil-de-perdrix</t>
+  </si>
+  <si>
+    <t>aigle</t>
+  </si>
+  <si>
+    <t>domaine de la baudelière</t>
+  </si>
+  <si>
+    <t>christine et stéphanie delarze</t>
+  </si>
+  <si>
+    <t>http://www.labaudeliere.ch/site/FR/domaine.html</t>
   </si>
 </sst>
 </file>
@@ -415,6 +422,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,7 +701,19 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -705,14 +725,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -730,27 +755,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -763,33 +771,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="11"/>
-    <tableColumn id="4" name="DOMAINE" dataDxfId="10"/>
-    <tableColumn id="2" name="CAVE" dataDxfId="9"/>
-    <tableColumn id="5" name="NOM" dataDxfId="8"/>
-    <tableColumn id="3" name="URL" dataDxfId="7"/>
+    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="16"/>
+    <tableColumn id="4" name="DOMAINE" dataDxfId="15"/>
+    <tableColumn id="2" name="CAVE" dataDxfId="14"/>
+    <tableColumn id="5" name="NOM" dataDxfId="13"/>
+    <tableColumn id="3" name="URL" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J37"/>
   <tableColumns count="10">
-    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="18"/>
-    <tableColumn id="1" name="REFERENCE_MAIL" dataDxfId="1"/>
-    <tableColumn id="5" name="APPELLATION" dataDxfId="17"/>
-    <tableColumn id="7" name="CEPAGE" dataDxfId="3"/>
-    <tableColumn id="10" name="ANNEE" dataDxfId="2"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="0"/>
-    <tableColumn id="12" name="PRIX" dataDxfId="4"/>
-    <tableColumn id="6" name="QUANTITE" dataDxfId="16"/>
-    <tableColumn id="2" name="DISPONIBLE" dataDxfId="15"/>
-    <tableColumn id="4" name="REMARQUES" dataDxfId="14"/>
+    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
+    <tableColumn id="1" name="REFERENCE_MAIL" dataDxfId="8"/>
+    <tableColumn id="5" name="APPELLATION" dataDxfId="7"/>
+    <tableColumn id="7" name="CEPAGE" dataDxfId="6"/>
+    <tableColumn id="10" name="ANNEE" dataDxfId="5"/>
+    <tableColumn id="8" name="COULEUR" dataDxfId="4"/>
+    <tableColumn id="12" name="PRIX" dataDxfId="3"/>
+    <tableColumn id="6" name="QUANTITE" dataDxfId="2"/>
+    <tableColumn id="2" name="DISPONIBLE" dataDxfId="1"/>
+    <tableColumn id="4" name="REMARQUES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1050,7 +1058,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1058,13 +1066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="8" customWidth="1"/>
@@ -1074,7 +1082,7 @@
     <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1242,6 +1250,23 @@
       </c>
       <c r="E10" s="10" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1261,6 +1286,11 @@
   <tableParts count="1">
     <tablePart r:id="rId10"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1268,11 +1298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1288,7 +1318,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1346,7 +1376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1369,12 +1399,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1404,7 +1432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1432,7 +1460,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1460,7 +1488,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1488,7 +1516,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1516,7 +1544,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1544,7 +1572,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1572,7 +1600,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1602,7 +1630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1626,7 +1654,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1654,7 +1682,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1682,7 +1710,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1710,7 +1738,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1738,7 +1766,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1766,7 +1794,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1794,7 +1822,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1822,7 +1850,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1850,7 +1878,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1878,7 +1906,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1906,7 +1934,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -1934,7 +1962,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -1962,7 +1990,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -1990,7 +2018,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2018,7 +2046,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2046,7 +2074,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2074,7 +2102,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2102,7 +2130,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2130,7 +2158,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2158,7 +2186,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2186,7 +2214,7 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2209,12 +2237,10 @@
         <v>6.5</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="I33" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2237,12 +2263,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I34" s="5"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2265,12 +2289,10 @@
         <v>8</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2293,12 +2315,10 @@
         <v>8</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2321,9 +2341,7 @@
         <v>8.5</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="4"/>
     </row>
   </sheetData>
@@ -2332,5 +2350,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>rivaz</t>
   </si>
@@ -400,13 +400,49 @@
     <t>aigle</t>
   </si>
   <si>
-    <t>domaine de la baudelière</t>
-  </si>
-  <si>
     <t>christine et stéphanie delarze</t>
   </si>
   <si>
     <t>http://www.labaudeliere.ch/site/FR/domaine.html</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>domaine de la baudeliere</t>
+  </si>
+  <si>
+    <t>domaine des trois étoiles</t>
+  </si>
+  <si>
+    <t>jean-charles crousaz</t>
+  </si>
+  <si>
+    <t>http://www.trois-etoiles.ch</t>
+  </si>
+  <si>
+    <t>vin 37</t>
+  </si>
+  <si>
+    <t>chasselas grand cru</t>
+  </si>
+  <si>
+    <t>yvorne grand cru</t>
+  </si>
+  <si>
+    <t>vin 38</t>
+  </si>
+  <si>
+    <t>trois roses</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>vin 39</t>
+  </si>
+  <si>
+    <t>riesling les vigneronnes</t>
   </si>
 </sst>
 </file>
@@ -422,7 +458,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,7 +501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -533,6 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -599,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="99">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -697,6 +733,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
@@ -771,8 +808,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" name="DOMAINE" dataDxfId="15"/>
@@ -785,8 +822,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J41"/>
   <tableColumns count="10">
     <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" name="REFERENCE_MAIL" dataDxfId="8"/>
@@ -1058,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1257,16 +1294,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1336,7 @@
     <hyperlink ref="E10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId10"/>
   </tableParts>
@@ -1296,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1706,7 +1760,7 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="5" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1734,7 +1788,7 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -1761,9 +1815,7 @@
         <v>12.1</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
@@ -2097,9 +2149,7 @@
         <v>11.6</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I28" s="5"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
@@ -2209,9 +2259,7 @@
         <v>12.5</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10">
@@ -2343,6 +2391,118 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="4">
+        <v>11</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="4">
+        <v>18</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
   <si>
     <t>rivaz</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>riesling les vigneronnes</t>
+  </si>
+  <si>
+    <t>rosé</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1352,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1447,7 +1450,7 @@
         <v>2016</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G3" s="4">
         <v>10</v>
@@ -1473,7 +1476,7 @@
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G4" s="4">
         <v>13</v>
@@ -1559,7 +1562,7 @@
         <v>2015</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G7" s="4">
         <v>16</v>
@@ -1615,7 +1618,7 @@
         <v>2015</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G9" s="4">
         <v>9.5</v>
@@ -1643,7 +1646,7 @@
         <v>2015</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G10" s="4">
         <v>10.5</v>
@@ -1725,7 +1728,7 @@
         <v>2015</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G13" s="4">
         <v>13</v>
@@ -1835,7 +1838,7 @@
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G17" s="4">
         <v>11.1</v>
@@ -1891,7 +1894,7 @@
         <v>2016</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G19" s="4">
         <v>9.4</v>
@@ -1919,7 +1922,7 @@
         <v>2016</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G20" s="4">
         <v>11.5</v>
@@ -1975,7 +1978,7 @@
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G22" s="4">
         <v>11.3</v>
@@ -2197,7 +2200,7 @@
         <v>2016</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G30" s="4">
         <v>11.5</v>
@@ -2225,7 +2228,7 @@
         <v>2016</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G31" s="4">
         <v>12.5</v>
@@ -2253,7 +2256,7 @@
         <v>2016</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G32" s="4">
         <v>12.5</v>
@@ -2357,7 +2360,7 @@
         <v>2016</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G36" s="4">
         <v>8</v>
@@ -2383,7 +2386,7 @@
         <v>2016</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G37" s="4">
         <v>8.5</v>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="161">
   <si>
     <t>rivaz</t>
   </si>
@@ -446,6 +446,66 @@
   </si>
   <si>
     <t>rosé</t>
+  </si>
+  <si>
+    <t>soral</t>
+  </si>
+  <si>
+    <t>domaine de la mermière</t>
+  </si>
+  <si>
+    <t>yves batardon</t>
+  </si>
+  <si>
+    <t>http://www.mermiere.ch</t>
+  </si>
+  <si>
+    <t>vin 40</t>
+  </si>
+  <si>
+    <t>chasselas vielles vignes</t>
+  </si>
+  <si>
+    <t>vin 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinot blanc </t>
+  </si>
+  <si>
+    <t>vin 42</t>
+  </si>
+  <si>
+    <t>kern blanc</t>
+  </si>
+  <si>
+    <t>vin 43</t>
+  </si>
+  <si>
+    <t>vin 44</t>
+  </si>
+  <si>
+    <t>soir d'été</t>
+  </si>
+  <si>
+    <t>vin 45</t>
+  </si>
+  <si>
+    <t>rouge-terre</t>
+  </si>
+  <si>
+    <t>vin 46</t>
+  </si>
+  <si>
+    <t>noir désir</t>
+  </si>
+  <si>
+    <t>vin 47</t>
+  </si>
+  <si>
+    <t>vin 48</t>
+  </si>
+  <si>
+    <t>gamay</t>
   </si>
 </sst>
 </file>
@@ -504,7 +564,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,6 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -638,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="100">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -737,6 +798,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
@@ -811,8 +873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" name="DOMAINE" dataDxfId="15"/>
@@ -825,8 +887,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J50"/>
   <tableColumns count="10">
     <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" name="REFERENCE_MAIL" dataDxfId="8"/>
@@ -1098,7 +1160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1324,6 +1386,23 @@
       </c>
       <c r="E12" s="7" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1353,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2507,6 +2586,256 @@
       </c>
       <c r="J41" s="2"/>
     </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="4">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -515,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,6 +544,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1160,7 +1166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1432,10 +1438,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A50"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1666,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>122</v>
@@ -1694,7 +1703,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>140</v>
@@ -1722,7 +1731,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>137</v>
@@ -2837,14 +2846,15 @@
       <c r="J50" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="161">
   <si>
     <t>rivaz</t>
   </si>
@@ -1166,7 +1166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1443,8 +1443,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1768,9 +1768,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="6" t="s">
         <v>57</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>137</v>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
   <si>
     <t>rivaz</t>
   </si>
@@ -279,9 +279,6 @@
     <t>http://deuxfoiscinq.ch/blog/praz_bovard/</t>
   </si>
   <si>
-    <t>REFERENCE_MAIL</t>
-  </si>
-  <si>
     <t>COULEUR</t>
   </si>
   <si>
@@ -366,148 +363,7 @@
     <t>×</t>
   </si>
   <si>
-    <t>vin-1</t>
-  </si>
-  <si>
-    <t>vin-2</t>
-  </si>
-  <si>
-    <t>vin-3</t>
-  </si>
-  <si>
-    <t>vin-4</t>
-  </si>
-  <si>
-    <t>vin-5</t>
-  </si>
-  <si>
-    <t>vin-6</t>
-  </si>
-  <si>
-    <t>vin-7</t>
-  </si>
-  <si>
-    <t>vin-8</t>
-  </si>
-  <si>
-    <t>vin-9</t>
-  </si>
-  <si>
-    <t>vin-10</t>
-  </si>
-  <si>
-    <t>vin-11</t>
-  </si>
-  <si>
-    <t>vin-12</t>
-  </si>
-  <si>
-    <t>vin-13</t>
-  </si>
-  <si>
-    <t>vin-14</t>
-  </si>
-  <si>
-    <t>vin-15</t>
-  </si>
-  <si>
-    <t>vin-16</t>
-  </si>
-  <si>
-    <t>vin-17</t>
-  </si>
-  <si>
-    <t>vin-18</t>
-  </si>
-  <si>
-    <t>vin-19</t>
-  </si>
-  <si>
-    <t>vin-20</t>
-  </si>
-  <si>
-    <t>vin-21</t>
-  </si>
-  <si>
-    <t>vin-22</t>
-  </si>
-  <si>
-    <t>vin-23</t>
-  </si>
-  <si>
-    <t>vin-24</t>
-  </si>
-  <si>
-    <t>vin-25</t>
-  </si>
-  <si>
-    <t>vin-26</t>
-  </si>
-  <si>
-    <t>vin-27</t>
-  </si>
-  <si>
-    <t>vin-28</t>
-  </si>
-  <si>
-    <t>vin-29</t>
-  </si>
-  <si>
-    <t>vin-30</t>
-  </si>
-  <si>
-    <t>vin-31</t>
-  </si>
-  <si>
-    <t>vin-32</t>
-  </si>
-  <si>
-    <t>vin-33</t>
-  </si>
-  <si>
-    <t>vin-34</t>
-  </si>
-  <si>
-    <t>vin-35</t>
-  </si>
-  <si>
-    <t>vin-36</t>
-  </si>
-  <si>
-    <t>vin-37</t>
-  </si>
-  <si>
-    <t>vin-38</t>
-  </si>
-  <si>
-    <t>vin-39</t>
-  </si>
-  <si>
-    <t>vin-40</t>
-  </si>
-  <si>
-    <t>vin-41</t>
-  </si>
-  <si>
-    <t>vin-42</t>
-  </si>
-  <si>
-    <t>vin-43</t>
-  </si>
-  <si>
-    <t>vin-44</t>
-  </si>
-  <si>
-    <t>vin-45</t>
-  </si>
-  <si>
-    <t>vin-46</t>
-  </si>
-  <si>
-    <t>vin-47</t>
-  </si>
-  <si>
-    <t>vin-48</t>
+    <t>ID_VIN</t>
   </si>
 </sst>
 </file>
@@ -852,9 +708,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -898,6 +751,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -958,15 +814,15 @@
   <autoFilter ref="A1:J50"/>
   <tableColumns count="10">
     <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
-    <tableColumn id="1" name="REFERENCE_MAIL" dataDxfId="0"/>
-    <tableColumn id="5" name="APPELLATION" dataDxfId="8"/>
-    <tableColumn id="7" name="CEPAGE" dataDxfId="7"/>
-    <tableColumn id="10" name="ANNEE" dataDxfId="6"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="5"/>
-    <tableColumn id="12" name="PRIX" dataDxfId="4"/>
-    <tableColumn id="6" name="QUANTITE" dataDxfId="3"/>
-    <tableColumn id="2" name="DISPONIBLE" dataDxfId="2"/>
-    <tableColumn id="4" name="REMARQUES" dataDxfId="1"/>
+    <tableColumn id="1" name="ID_VIN" dataDxfId="8"/>
+    <tableColumn id="5" name="APPELLATION" dataDxfId="7"/>
+    <tableColumn id="7" name="CEPAGE" dataDxfId="6"/>
+    <tableColumn id="10" name="ANNEE" dataDxfId="5"/>
+    <tableColumn id="8" name="COULEUR" dataDxfId="4"/>
+    <tableColumn id="12" name="PRIX" dataDxfId="3"/>
+    <tableColumn id="6" name="QUANTITE" dataDxfId="2"/>
+    <tableColumn id="2" name="DISPONIBLE" dataDxfId="1"/>
+    <tableColumn id="4" name="REMARQUES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1430,13 +1286,13 @@
         <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1444,16 +1300,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1461,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1504,14 +1360,14 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1529,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>72</v>
@@ -1541,7 +1397,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
@@ -1560,8 +1416,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1573,14 +1429,14 @@
         <v>2016</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="4">
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>56</v>
@@ -1590,8 +1446,8 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1603,7 +1459,7 @@
         <v>2016</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4">
         <v>10</v>
@@ -1616,8 +1472,8 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>114</v>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1629,14 +1485,14 @@
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4">
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>57</v>
@@ -1646,8 +1502,8 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>115</v>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1659,14 +1515,14 @@
         <v>2015</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4">
         <v>10.5</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1674,8 +1530,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>116</v>
+      <c r="B6" s="2">
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1687,14 +1543,14 @@
         <v>2015</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4">
         <v>10.5</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1702,8 +1558,8 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>117</v>
+      <c r="B7" s="2">
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1715,14 +1571,14 @@
         <v>2015</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="4">
         <v>16</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1730,8 +1586,8 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>118</v>
+      <c r="B8" s="2">
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1743,14 +1599,14 @@
         <v>2016</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4">
         <v>7.5</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -1758,27 +1614,27 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>119</v>
+      <c r="B9" s="2">
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
         <v>2016</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4">
         <v>9.5</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -1786,8 +1642,8 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>120</v>
+      <c r="B10" s="2">
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -1799,14 +1655,14 @@
         <v>2016</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="4">
         <v>10.5</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -1814,8 +1670,8 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
+      <c r="B11" s="2">
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -1827,7 +1683,7 @@
         <v>2014</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4">
         <v>20</v>
@@ -1842,8 +1698,8 @@
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>122</v>
+      <c r="B12" s="2">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1855,7 +1711,7 @@
         <v>2014</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1866,8 +1722,8 @@
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>123</v>
+      <c r="B13" s="2">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -1879,14 +1735,14 @@
         <v>2016</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="4">
         <v>13</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1894,8 +1750,8 @@
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
+      <c r="B14" s="2">
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -1907,14 +1763,14 @@
         <v>2016</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4">
         <v>7.9</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1922,8 +1778,8 @@
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>125</v>
+      <c r="B15" s="2">
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -1935,14 +1791,14 @@
         <v>2016</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -1950,8 +1806,8 @@
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>126</v>
+      <c r="B16" s="2">
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -1963,7 +1819,7 @@
         <v>2016</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4">
         <v>12.1</v>
@@ -1976,8 +1832,8 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
+      <c r="B17" s="2">
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -1989,14 +1845,14 @@
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="4">
         <v>11.1</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -2004,8 +1860,8 @@
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>128</v>
+      <c r="B18" s="2">
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
@@ -2017,14 +1873,14 @@
         <v>2016</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="4">
         <v>6.9</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -2032,8 +1888,8 @@
       <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
+      <c r="B19" s="2">
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>36</v>
@@ -2045,14 +1901,14 @@
         <v>2016</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4">
         <v>9.4</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -2060,8 +1916,8 @@
       <c r="A20" s="2">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>130</v>
+      <c r="B20" s="2">
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2073,14 +1929,14 @@
         <v>2016</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="4">
         <v>11.5</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -2088,8 +1944,8 @@
       <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>131</v>
+      <c r="B21" s="2">
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
@@ -2101,14 +1957,14 @@
         <v>2016</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="4">
         <v>12.4</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -2116,27 +1972,27 @@
       <c r="A22" s="2">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>132</v>
+      <c r="B22" s="2">
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="4">
         <v>11.3</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -2144,8 +2000,8 @@
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>133</v>
+      <c r="B23" s="2">
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -2157,14 +2013,14 @@
         <v>2016</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="4">
         <v>17</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -2172,8 +2028,8 @@
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
+      <c r="B24" s="2">
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
@@ -2185,14 +2041,14 @@
         <v>2016</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4">
         <v>10.1</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -2200,8 +2056,8 @@
       <c r="A25" s="2">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>135</v>
+      <c r="B25" s="2">
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -2213,14 +2069,14 @@
         <v>2016</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="4">
         <v>10.9</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -2228,8 +2084,8 @@
       <c r="A26" s="2">
         <v>8</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>136</v>
+      <c r="B26" s="2">
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>44</v>
@@ -2241,14 +2097,14 @@
         <v>2016</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="4">
         <v>12.7</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -2256,8 +2112,8 @@
       <c r="A27" s="2">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>137</v>
+      <c r="B27" s="2">
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>46</v>
@@ -2269,14 +2125,14 @@
         <v>2016</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="4">
         <v>14</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -2284,8 +2140,8 @@
       <c r="A28" s="2">
         <v>8</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>138</v>
+      <c r="B28" s="2">
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
@@ -2297,7 +2153,7 @@
         <v>2016</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="4">
         <v>11.6</v>
@@ -2310,8 +2166,8 @@
       <c r="A29" s="2">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>139</v>
+      <c r="B29" s="2">
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>50</v>
@@ -2323,14 +2179,14 @@
         <v>2016</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="4">
         <v>8.5</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -2338,27 +2194,27 @@
       <c r="A30" s="2">
         <v>9</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>140</v>
+      <c r="B30" s="2">
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2">
         <v>2016</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="4">
         <v>11.5</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -2366,8 +2222,8 @@
       <c r="A31" s="2">
         <v>9</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>141</v>
+      <c r="B31" s="2">
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>50</v>
@@ -2379,14 +2235,14 @@
         <v>2016</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="4">
         <v>12.5</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2394,8 +2250,8 @@
       <c r="A32" s="2">
         <v>9</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
+      <c r="B32" s="2">
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>50</v>
@@ -2407,7 +2263,7 @@
         <v>2016</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4">
         <v>12.5</v>
@@ -2420,8 +2276,8 @@
       <c r="A33" s="2">
         <v>10</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>143</v>
+      <c r="B33" s="2">
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>52</v>
@@ -2433,7 +2289,7 @@
         <v>2016</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="4">
         <v>6.5</v>
@@ -2446,8 +2302,8 @@
       <c r="A34" s="2">
         <v>10</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>144</v>
+      <c r="B34" s="2">
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>52</v>
@@ -2459,7 +2315,7 @@
         <v>2016</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="4">
         <v>7</v>
@@ -2472,8 +2328,8 @@
       <c r="A35" s="2">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>145</v>
+      <c r="B35" s="2">
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>52</v>
@@ -2485,7 +2341,7 @@
         <v>2016</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="4">
         <v>8</v>
@@ -2498,20 +2354,20 @@
       <c r="A36" s="2">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>146</v>
+      <c r="B36" s="2">
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2">
         <v>2016</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" s="4">
         <v>8</v>
@@ -2524,8 +2380,8 @@
       <c r="A37" s="2">
         <v>10</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>147</v>
+      <c r="B37" s="2">
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>52</v>
@@ -2537,7 +2393,7 @@
         <v>2016</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="4">
         <v>8.5</v>
@@ -2550,27 +2406,27 @@
       <c r="A38" s="2">
         <v>11</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>148</v>
+      <c r="B38" s="2">
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2">
         <v>2016</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="4">
         <v>11</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J38" s="2"/>
     </row>
@@ -2578,27 +2434,27 @@
       <c r="A39" s="2">
         <v>11</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>148</v>
+      <c r="B39" s="2">
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2">
         <v>2016</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="4">
         <v>11.7</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J39" s="2"/>
     </row>
@@ -2606,27 +2462,27 @@
       <c r="A40" s="2">
         <v>11</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>149</v>
+      <c r="B40" s="2">
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G40" s="4">
         <v>12.8</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -2634,27 +2490,27 @@
       <c r="A41" s="2">
         <v>11</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>150</v>
+      <c r="B41" s="2">
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2">
         <v>2016</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="4">
         <v>18</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -2662,27 +2518,27 @@
       <c r="A42" s="2">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>151</v>
+      <c r="B42" s="2">
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" s="2">
         <v>2016</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="4">
         <v>6.5</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J42" s="2"/>
     </row>
@@ -2690,27 +2546,27 @@
       <c r="A43" s="2">
         <v>12</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>152</v>
+      <c r="B43" s="2">
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2">
         <v>2016</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="4">
         <v>9.5</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J43" s="2"/>
     </row>
@@ -2718,20 +2574,20 @@
       <c r="A44" s="2">
         <v>12</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>153</v>
+      <c r="B44" s="2">
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2">
         <v>2016</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="4">
         <v>12.5</v>
@@ -2744,27 +2600,27 @@
       <c r="A45" s="2">
         <v>12</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>154</v>
+      <c r="B45" s="2">
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="4">
         <v>7.5</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J45" s="2"/>
     </row>
@@ -2772,11 +2628,11 @@
       <c r="A46" s="2">
         <v>12</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>155</v>
+      <c r="B46" s="2">
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -2785,14 +2641,14 @@
         <v>2015</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="4">
         <v>9.5</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J46" s="2"/>
     </row>
@@ -2800,27 +2656,27 @@
       <c r="A47" s="2">
         <v>12</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>156</v>
+      <c r="B47" s="2">
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2">
         <v>2016</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G47" s="4">
         <v>10</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -2828,27 +2684,27 @@
       <c r="A48" s="2">
         <v>12</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>157</v>
+      <c r="B48" s="2">
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2">
         <v>2015</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" s="4">
         <v>13.5</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J48" s="2"/>
     </row>
@@ -2856,11 +2712,11 @@
       <c r="A49" s="2">
         <v>12</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>158</v>
+      <c r="B49" s="2">
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>51</v>
@@ -2869,14 +2725,14 @@
         <v>2015</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" s="4">
         <v>13.5</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -2884,27 +2740,27 @@
       <c r="A50" s="2">
         <v>12</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>159</v>
+      <c r="B50" s="2">
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2">
         <v>2016</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="4">
         <v>8.5</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J50" s="2"/>
     </row>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="112">
   <si>
     <t>rivaz</t>
   </si>
@@ -379,6 +374,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1098,7 +1094,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="7" customWidth="1"/>
@@ -1108,7 +1104,7 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1142,7 +1138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1210,7 +1206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1227,7 +1223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1278,7 +1274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>-10</v>
       </c>
@@ -1295,7 +1291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1350,6 +1346,11 @@
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1360,11 +1361,11 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1380,7 +1381,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1468,7 +1469,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1526,7 +1527,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1554,7 +1555,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1582,7 +1583,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1610,7 +1611,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1638,7 +1639,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1666,7 +1667,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1718,7 +1719,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1774,7 +1775,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1802,7 +1803,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1856,7 +1857,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1912,7 +1913,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1940,7 +1941,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1968,7 +1969,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1996,7 +1997,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2024,7 +2025,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2052,7 +2053,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2080,7 +2081,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2108,7 +2109,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2162,7 +2163,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2190,7 +2191,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2218,7 +2219,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2246,7 +2247,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2272,7 +2273,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2298,7 +2299,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2324,7 +2325,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2402,7 +2403,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2430,7 +2431,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -2481,12 +2482,10 @@
         <v>12.8</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>97</v>
       </c>
       <c r="E41" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>84</v>
@@ -2514,7 +2513,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -2537,12 +2536,10 @@
         <v>6.5</v>
       </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -2565,12 +2562,10 @@
         <v>9.5</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I43" s="11"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -2596,7 +2591,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -2619,12 +2614,10 @@
         <v>7.5</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I45" s="11"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -2647,12 +2640,10 @@
         <v>9.5</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2675,12 +2666,10 @@
         <v>10</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -2703,12 +2692,10 @@
         <v>13.5</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I48" s="11"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -2731,12 +2718,10 @@
         <v>13.5</v>
       </c>
       <c r="H49" s="4"/>
-      <c r="I49" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I49" s="11"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2759,9 +2744,7 @@
         <v>8.5</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I50" s="11"/>
       <c r="J50" s="2"/>
     </row>
   </sheetData>
@@ -2771,5 +2754,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -12,11 +17,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -374,7 +379,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1090,11 +1094,11 @@
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="7" customWidth="1"/>
@@ -1104,7 +1108,7 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>-10</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1308,9 +1312,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>99</v>
@@ -1346,11 +1350,6 @@
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1361,11 +1360,11 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView topLeftCell="B29" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1381,7 +1380,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1469,7 +1468,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1527,7 +1526,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1555,7 +1554,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1583,7 +1582,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1611,7 +1610,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1667,7 +1666,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1719,7 +1718,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1747,7 +1746,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1775,7 +1774,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1803,7 +1802,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1829,7 +1828,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1857,7 +1856,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1913,7 +1912,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1941,7 +1940,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1969,7 +1968,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1997,7 +1996,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2025,7 +2024,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2053,7 +2052,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2081,7 +2080,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2109,7 +2108,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2137,7 +2136,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2163,7 +2162,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2191,7 +2190,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2219,7 +2218,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2247,7 +2246,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2273,7 +2272,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2299,7 +2298,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2325,7 +2324,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2377,7 +2376,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2403,7 +2402,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -2459,7 +2458,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -2485,7 +2484,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -2513,7 +2512,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -2539,7 +2538,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -2565,7 +2564,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -2591,7 +2590,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -2617,7 +2616,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -2643,7 +2642,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2669,7 +2668,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -2695,7 +2694,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -2721,7 +2720,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2754,10 +2753,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
   <si>
     <t>rivaz</t>
   </si>
@@ -118,9 +113,6 @@
   </si>
   <si>
     <t>amigne</t>
-  </si>
-  <si>
-    <t>gamay vieilles vignes</t>
   </si>
   <si>
     <t>cave du pasquier</t>
@@ -1083,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1094,11 +1086,11 @@
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="7" customWidth="1"/>
@@ -1108,7 +1100,7 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1142,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1159,174 +1151,174 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>-10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1350,6 +1342,11 @@
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1360,11 +1357,11 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1380,15 +1377,15 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1397,22 +1394,22 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1429,20 +1426,20 @@
         <v>2016</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4">
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1459,7 +1456,7 @@
         <v>2016</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="4">
         <v>10</v>
@@ -1468,7 +1465,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1485,20 +1482,20 @@
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4">
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1515,18 +1512,18 @@
         <v>2015</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4">
         <v>10.5</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1543,18 +1540,18 @@
         <v>2015</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4">
         <v>10.5</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1571,18 +1568,18 @@
         <v>2015</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="4">
         <v>16</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1599,18 +1596,18 @@
         <v>2016</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4">
         <v>7.5</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1621,24 +1618,24 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>2016</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="4">
         <v>9.5</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1655,18 +1652,18 @@
         <v>2016</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4">
         <v>10.5</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1683,7 +1680,7 @@
         <v>2014</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4">
         <v>20</v>
@@ -1691,10 +1688,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="11"/>
       <c r="J11" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1711,14 +1708,14 @@
         <v>2014</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1729,24 +1726,24 @@
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2">
         <v>2016</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="4">
         <v>13</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -1763,18 +1760,18 @@
         <v>2016</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4">
         <v>7.9</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1782,27 +1779,27 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="2">
         <v>2016</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -1819,7 +1816,7 @@
         <v>2016</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4">
         <v>12.1</v>
@@ -1828,7 +1825,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1836,27 +1833,27 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="4">
         <v>11.1</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -1873,18 +1870,18 @@
         <v>2016</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4">
         <v>6.9</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
@@ -1901,18 +1898,18 @@
         <v>2016</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="4">
         <v>9.4</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -1929,18 +1926,18 @@
         <v>2016</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="4">
         <v>11.5</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1948,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -1957,18 +1954,18 @@
         <v>2016</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="4">
         <v>12.4</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1976,27 +1973,27 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="4">
         <v>11.3</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2004,27 +2001,27 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="2">
         <v>2016</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="4">
         <v>17</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -2041,18 +2038,18 @@
         <v>2016</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="4">
         <v>10.1</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2060,27 +2057,27 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E25" s="2">
         <v>2016</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="4">
         <v>10.9</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2088,27 +2085,27 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E26" s="2">
         <v>2016</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="4">
         <v>12.7</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2116,27 +2113,27 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E27" s="2">
         <v>2016</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4">
         <v>14</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2144,16 +2141,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2">
         <v>2016</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="4">
         <v>11.6</v>
@@ -2162,7 +2159,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -2179,18 +2176,18 @@
         <v>2016</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="4">
         <v>8.5</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2198,27 +2195,27 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2">
         <v>2016</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" s="4">
         <v>11.5</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
@@ -2235,18 +2232,18 @@
         <v>2016</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="4">
         <v>12.5</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2254,16 +2251,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E32" s="2">
         <v>2016</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="4">
         <v>12.5</v>
@@ -2272,7 +2269,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2280,7 +2277,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -2289,7 +2286,7 @@
         <v>2016</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="4">
         <v>6.5</v>
@@ -2298,7 +2295,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2306,16 +2303,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E34" s="2">
         <v>2016</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="4">
         <v>7</v>
@@ -2324,7 +2321,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2332,16 +2329,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2">
         <v>2016</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4">
         <v>8</v>
@@ -2350,7 +2347,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2358,16 +2355,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2">
         <v>2016</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="4">
         <v>8</v>
@@ -2376,7 +2373,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2384,16 +2381,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2">
         <v>2016</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" s="4">
         <v>8.5</v>
@@ -2402,7 +2399,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2410,27 +2407,27 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="2">
         <v>2016</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="4">
         <v>11</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -2438,27 +2435,27 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2">
         <v>2016</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="4">
         <v>11.7</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -2466,16 +2463,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G40" s="4">
         <v>12.8</v>
@@ -2484,7 +2481,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -2492,27 +2489,27 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2">
         <v>2015</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" s="4">
         <v>18</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -2520,16 +2517,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2">
         <v>2016</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="4">
         <v>6.5</v>
@@ -2538,7 +2535,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -2546,16 +2543,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2">
         <v>2016</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="4">
         <v>9.5</v>
@@ -2564,7 +2561,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -2572,16 +2569,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2">
         <v>2016</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="4">
         <v>12.5</v>
@@ -2590,7 +2587,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -2598,16 +2595,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G45" s="4">
         <v>7.5</v>
@@ -2616,7 +2613,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -2624,7 +2621,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -2633,7 +2630,7 @@
         <v>2015</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="4">
         <v>9.5</v>
@@ -2642,7 +2639,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2650,16 +2647,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2">
         <v>2016</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" s="4">
         <v>10</v>
@@ -2668,7 +2665,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -2676,16 +2673,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2">
         <v>2015</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="4">
         <v>13.5</v>
@@ -2694,7 +2691,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -2702,16 +2699,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2">
         <v>2015</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="4">
         <v>13.5</v>
@@ -2720,7 +2717,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2728,16 +2725,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2">
         <v>2016</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" s="4">
         <v>8.5</v>
@@ -2753,5 +2750,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,7 +1086,7 @@
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1357,7 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView topLeftCell="B39" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1075,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1357,7 +1357,7 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -12,18 +17,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
   <si>
     <t>rivaz</t>
   </si>
@@ -1075,7 +1080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,11 +1091,11 @@
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="7" customWidth="1"/>
@@ -1100,7 +1105,7 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>-10</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1342,11 +1347,6 @@
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1357,11 +1357,11 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1377,7 +1377,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -2532,10 +2532,12 @@
         <v>6.5</v>
       </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -2558,10 +2560,12 @@
         <v>9.5</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -2584,10 +2588,12 @@
         <v>12.5</v>
       </c>
       <c r="H44" s="4"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -2610,10 +2616,12 @@
         <v>7.5</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -2636,10 +2644,12 @@
         <v>9.5</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2662,10 +2672,12 @@
         <v>10</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -2688,10 +2700,12 @@
         <v>13.5</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -2714,10 +2728,12 @@
         <v>13.5</v>
       </c>
       <c r="H49" s="4"/>
-      <c r="I49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2740,7 +2756,9 @@
         <v>8.5</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="11"/>
+      <c r="I50" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J50" s="2"/>
     </row>
   </sheetData>
@@ -2750,10 +2768,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Sites/deuxfoiscinq/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="51120" windowHeight="28360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="111">
   <si>
     <t>rivaz</t>
   </si>
@@ -1080,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,7 +1090,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="7" customWidth="1"/>
@@ -1105,7 +1100,7 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1139,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1173,7 +1168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1190,7 +1185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1207,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1224,7 +1219,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1275,7 +1270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>-10</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1309,7 +1304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1347,6 +1342,11 @@
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1357,11 +1357,11 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1377,7 +1377,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -2560,12 +2560,10 @@
         <v>9.5</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I43" s="11"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -2588,12 +2586,10 @@
         <v>12.5</v>
       </c>
       <c r="H44" s="4"/>
-      <c r="I44" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I44" s="11"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -2621,7 +2617,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -2649,7 +2645,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2677,7 +2673,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -2705,7 +2701,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -2733,7 +2729,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2768,5 +2764,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
   <si>
     <t>rivaz</t>
   </si>
@@ -356,6 +356,30 @@
   </si>
   <si>
     <t>ID_VIN</t>
+  </si>
+  <si>
+    <t>tartegnin</t>
+  </si>
+  <si>
+    <t>domaine des chantailles</t>
+  </si>
+  <si>
+    <t>jean-françois déruaz</t>
+  </si>
+  <si>
+    <t>https://chantailles.ch</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>sonate</t>
+  </si>
+  <si>
+    <t>oratorio</t>
   </si>
 </sst>
 </file>
@@ -418,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -437,6 +461,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -550,7 +583,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -583,6 +616,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,8 +824,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E14"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" name="DOMAINE" dataDxfId="15"/>
@@ -802,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J54" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J54"/>
   <tableColumns count="10">
     <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" name="ID_VIN" dataDxfId="8"/>
@@ -1075,7 +1111,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1319,6 +1355,23 @@
       </c>
       <c r="E13" s="9" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1355,10 +1408,10 @@
   <sheetPr codeName="Feuille2" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2478,7 +2531,9 @@
         <v>12.8</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
@@ -2640,9 +2695,7 @@
         <v>9.5</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
@@ -2668,9 +2721,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
@@ -2752,10 +2803,120 @@
         <v>8.5</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I50" s="11"/>
       <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="4">
+        <v>10</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="4">
+        <v>20</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>13</v>
+      </c>
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J54" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -12,11 +17,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -1111,7 +1116,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,7 +1131,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="7" customWidth="1"/>
@@ -1136,7 +1141,7 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>-10</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1395,11 +1400,6 @@
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1410,11 +1410,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -1430,7 +1430,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>83</v>
       </c>
       <c r="G18" s="4">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="10" t="s">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>12</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>13</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>13</v>
       </c>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>13</v>
       </c>
@@ -2925,10 +2925,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27980" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="123">
   <si>
     <t>rivaz</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>oratorio</t>
+  </si>
+  <si>
+    <t>bofflens</t>
+  </si>
+  <si>
+    <t>christian dugon</t>
+  </si>
+  <si>
+    <t>https://www.dugon.ch</t>
+  </si>
+  <si>
+    <t>symphonie</t>
   </si>
 </sst>
 </file>
@@ -829,8 +841,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" name="DOMAINE" dataDxfId="15"/>
@@ -843,8 +855,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J54" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J55" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J55"/>
   <tableColumns count="10">
     <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" name="ID_VIN" dataDxfId="8"/>
@@ -1125,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,6 +1389,20 @@
       </c>
       <c r="E14" s="6" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>-14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1434,11 @@
   <sheetPr codeName="Feuille2" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1422,7 +1449,7 @@
     <col min="4" max="4" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -2829,7 +2856,7 @@
         <v>7.2</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="11" t="s">
         <v>115</v>
       </c>
       <c r="J51" s="2"/>
@@ -2857,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="11" t="s">
         <v>115</v>
       </c>
       <c r="J52" s="2"/>
@@ -2885,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="4"/>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="11" t="s">
         <v>115</v>
       </c>
       <c r="J53" s="2"/>
@@ -2913,10 +2940,38 @@
         <v>11.25</v>
       </c>
       <c r="H54" s="4"/>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="11" t="s">
         <v>115</v>
       </c>
       <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="4">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27980" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="27980" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="126">
   <si>
     <t>rivaz</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>symphonie</t>
+  </si>
+  <si>
+    <t>chardonney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosé </t>
+  </si>
+  <si>
+    <t>arpège</t>
   </si>
 </sst>
 </file>
@@ -855,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J55" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J59"/>
   <tableColumns count="10">
     <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" name="ID_VIN" dataDxfId="8"/>
@@ -1139,7 +1148,7 @@
   <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1434,11 +1443,11 @@
   <sheetPr codeName="Feuille2" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2973,6 +2982,118 @@
       </c>
       <c r="J55" s="2"/>
     </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B56" s="2">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B57" s="2">
+        <v>51</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B58" s="2">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B59" s="2">
+        <v>51</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="500" windowWidth="27980" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28000" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="126">
   <si>
     <t>rivaz</t>
   </si>
@@ -399,13 +399,13 @@
     <t>symphonie</t>
   </si>
   <si>
-    <t>chardonney</t>
-  </si>
-  <si>
     <t xml:space="preserve">rosé </t>
   </si>
   <si>
     <t>arpège</t>
+  </si>
+  <si>
+    <t>chardonnay</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>119</v>
@@ -1446,8 +1446,8 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1598,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>83</v>
@@ -1654,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>95</v>
@@ -1747,9 +1747,7 @@
         <v>10.5</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1855,9 +1853,7 @@
         <v>7.9</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1993,9 +1989,7 @@
         <v>9.4</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I19" s="11"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2105,9 +2099,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2133,9 +2125,7 @@
         <v>10.1</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I24" s="11"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2217,9 +2207,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I27" s="11"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2327,9 +2315,7 @@
         <v>12.5</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I31" s="11"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2539,9 +2525,7 @@
         <v>11.7</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I39" s="11"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2567,9 +2551,7 @@
         <v>12.8</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2893,9 +2875,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="I52" s="11"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2956,7 +2936,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B55" s="2">
         <v>51</v>
@@ -2984,7 +2964,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -2993,7 +2973,7 @@
         <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2">
         <v>2015</v>
@@ -3012,7 +2992,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2">
         <v>51</v>
@@ -3021,7 +3001,7 @@
         <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2">
         <v>2016</v>
@@ -3040,7 +3020,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B58" s="2">
         <v>51</v>
@@ -3049,7 +3029,7 @@
         <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2">
         <v>2015</v>
@@ -3068,7 +3048,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B59" s="2">
         <v>51</v>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28000" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
     <sheet name="CARTE-DES-VINS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
   <si>
     <t>rivaz</t>
   </si>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
   </numFmts>
@@ -845,38 +845,41 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID_VIGNERON" dataDxfId="16"/>
-    <tableColumn id="4" name="DOMAINE" dataDxfId="15"/>
-    <tableColumn id="2" name="CAVE" dataDxfId="14"/>
-    <tableColumn id="5" name="NOM" dataDxfId="13"/>
-    <tableColumn id="3" name="URL" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CAVE" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NOM" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="URL" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="3" name="ID_VIGNERON" dataDxfId="9"/>
-    <tableColumn id="1" name="ID_VIN" dataDxfId="8"/>
-    <tableColumn id="5" name="APPELLATION" dataDxfId="7"/>
-    <tableColumn id="7" name="CEPAGE" dataDxfId="6"/>
-    <tableColumn id="10" name="ANNEE" dataDxfId="5"/>
-    <tableColumn id="8" name="COULEUR" dataDxfId="4"/>
-    <tableColumn id="12" name="PRIX" dataDxfId="3"/>
-    <tableColumn id="6" name="QUANTITE" dataDxfId="2"/>
-    <tableColumn id="2" name="DISPONIBLE" dataDxfId="1"/>
-    <tableColumn id="4" name="REMARQUES" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="APPELLATION" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="CEPAGE" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ANNEE" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COULEUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="PRIX" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="QUANTITE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DISPONIBLE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="REMARQUES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,8 +1147,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuille1"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
@@ -1417,18 +1420,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1439,15 +1442,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuille2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1635,9 +1638,7 @@
         <v>10.5</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1961,9 +1962,7 @@
         <v>7.1</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
   <si>
     <t>rivaz</t>
   </si>
@@ -357,9 +357,6 @@
     <t>gamay</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>ID_VIN</t>
   </si>
   <si>
@@ -406,6 +403,30 @@
   </si>
   <si>
     <t>chardonnay</t>
+  </si>
+  <si>
+    <t>domaine dugon</t>
+  </si>
+  <si>
+    <t>villeneuve</t>
+  </si>
+  <si>
+    <t>domaine du scex du châtelard</t>
+  </si>
+  <si>
+    <t>daniel et marc allamand</t>
+  </si>
+  <si>
+    <t>http://www.scexduchatelard.ch</t>
+  </si>
+  <si>
+    <t>chasslas</t>
+  </si>
+  <si>
+    <t>viognier</t>
+  </si>
+  <si>
+    <t>gamay vieilles vignes</t>
   </si>
 </sst>
 </file>
@@ -853,8 +874,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -867,8 +888,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J63" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1149,10 +1170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,16 +1412,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,13 +1429,33 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>121</v>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1446,11 +1487,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>71</v>
@@ -1524,9 +1565,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I2" s="10"/>
       <c r="J2" s="5" t="s">
         <v>55</v>
       </c>
@@ -1580,9 +1619,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="5" t="s">
         <v>56</v>
       </c>
@@ -1610,9 +1647,7 @@
         <v>10.5</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1664,9 +1699,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1692,9 +1725,7 @@
         <v>7.5</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I8" s="10"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1720,9 +1751,7 @@
         <v>9.5</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1826,9 +1855,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1880,9 +1907,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1934,9 +1959,7 @@
         <v>11.1</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2014,9 +2037,7 @@
         <v>11.5</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2042,9 +2063,7 @@
         <v>12.4</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I21" s="11"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2070,9 +2089,7 @@
         <v>11.3</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2150,9 +2167,7 @@
         <v>10.9</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I25" s="11"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2178,9 +2193,7 @@
         <v>12.7</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I26" s="11"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2258,9 +2271,7 @@
         <v>8.5</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I29" s="11"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2286,9 +2297,7 @@
         <v>11.5</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I30" s="11"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2496,9 +2505,7 @@
         <v>11</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I38" s="11"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2576,9 +2583,7 @@
         <v>18</v>
       </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I41" s="11"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2604,9 +2609,7 @@
         <v>6.5</v>
       </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2684,9 +2687,7 @@
         <v>7.5</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I45" s="11"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2764,9 +2765,7 @@
         <v>13.5</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I48" s="11"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2792,9 +2791,7 @@
         <v>13.5</v>
       </c>
       <c r="H49" s="4"/>
-      <c r="I49" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="I49" s="11"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2831,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -2846,9 +2843,7 @@
         <v>7.2</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="I51" s="11"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2859,10 +2854,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2">
         <v>2015</v>
@@ -2885,10 +2880,10 @@
         <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2">
         <v>2015</v>
@@ -2900,9 +2895,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="4"/>
-      <c r="I53" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="I53" s="11"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2913,10 +2906,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2">
         <v>2014</v>
@@ -2928,9 +2921,7 @@
         <v>11.25</v>
       </c>
       <c r="H54" s="4"/>
-      <c r="I54" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="I54" s="11"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2944,7 +2935,7 @@
         <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2">
         <v>2016</v>
@@ -2957,7 +2948,7 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -2972,7 +2963,7 @@
         <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2">
         <v>2015</v>
@@ -2985,7 +2976,7 @@
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -3000,7 +2991,7 @@
         <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2">
         <v>2016</v>
@@ -3013,7 +3004,7 @@
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J57" s="2"/>
     </row>
@@ -3028,7 +3019,7 @@
         <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2">
         <v>2015</v>
@@ -3041,7 +3032,7 @@
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -3069,9 +3060,121 @@
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2">
+        <v>52</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2">
+        <v>52</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2">
+        <v>52</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2">
+        <v>52</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
   <sheetPr codeName="Feuille1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>57</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>60</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>63</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>65</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>37</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>68</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>49</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>98</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>110</v>
@@ -1489,8 +1489,8 @@
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63:C63"/>
     </sheetView>
   </sheetViews>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF011F2F-5A65-B740-B0D6-1A71707909E7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -1172,7 +1173,7 @@
   <sheetPr codeName="Feuille1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1489,9 +1490,9 @@
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:C63"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1563,7 @@
         <v>83</v>
       </c>
       <c r="G2" s="4">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="10"/>
@@ -1644,7 +1645,7 @@
         <v>83</v>
       </c>
       <c r="G5" s="4">
-        <v>10.5</v>
+        <v>10.51</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="11"/>
@@ -2346,7 +2347,7 @@
         <v>95</v>
       </c>
       <c r="G32" s="4">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="10"/>
@@ -2450,7 +2451,7 @@
         <v>97</v>
       </c>
       <c r="G36" s="4">
-        <v>8</v>
+        <v>8.01</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="10"/>
@@ -2710,7 +2711,7 @@
         <v>95</v>
       </c>
       <c r="G46" s="4">
-        <v>9.5</v>
+        <v>9.51</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="11"/>
@@ -2788,7 +2789,7 @@
         <v>95</v>
       </c>
       <c r="G49" s="4">
-        <v>13.5</v>
+        <v>13.51</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="11"/>
@@ -3028,7 +3029,7 @@
         <v>95</v>
       </c>
       <c r="G58" s="4">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="12" t="s">
@@ -3056,7 +3057,7 @@
         <v>95</v>
       </c>
       <c r="G59" s="4">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="12" t="s">
@@ -3168,7 +3169,7 @@
         <v>95</v>
       </c>
       <c r="G63" s="4">
-        <v>10.4</v>
+        <v>10.41</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="12" t="s">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF011F2F-5A65-B740-B0D6-1A71707909E7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085762BD-6EAB-724B-9AE4-91ADF90B6F24}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t>rivaz</t>
   </si>
@@ -1492,7 +1492,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3032,9 +3032,7 @@
         <v>11.51</v>
       </c>
       <c r="H58" s="4"/>
-      <c r="I58" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3060,9 +3058,7 @@
         <v>11.52</v>
       </c>
       <c r="H59" s="4"/>
-      <c r="I59" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I59" s="12"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3116,9 +3112,7 @@
         <v>10.4</v>
       </c>
       <c r="H61" s="4"/>
-      <c r="I61" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I61" s="12"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3144,9 +3138,7 @@
         <v>12.7</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I62" s="12"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085762BD-6EAB-724B-9AE4-91ADF90B6F24}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFA8DA-5E1D-4A4A-B1BD-280DEB06BD78}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
   <si>
     <t>rivaz</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>gamay vieilles vignes</t>
+  </si>
+  <si>
+    <t>anières</t>
+  </si>
+  <si>
+    <t>domaine villard &amp; fils</t>
+  </si>
+  <si>
+    <t>philippe villard</t>
+  </si>
+  <si>
+    <t>https://www.geneveterroir.ch/fr/domaine-villard-fils/4498</t>
+  </si>
+  <si>
+    <t>muscadet sec</t>
   </si>
 </sst>
 </file>
@@ -875,8 +890,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -889,8 +904,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J63" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J69" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J69" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1171,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1457,6 +1472,23 @@
       </c>
       <c r="E16" s="7" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1488,11 +1520,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1598,9 @@
         <v>10.4</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>55</v>
       </c>
@@ -3168,6 +3202,174 @@
         <v>114</v>
       </c>
       <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>16</v>
+      </c>
+      <c r="B64" s="2">
+        <v>53</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="4">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>16</v>
+      </c>
+      <c r="B65" s="2">
+        <v>53</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="4">
+        <v>8</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2">
+        <v>53</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="4">
+        <v>9</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2">
+        <v>53</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="4">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>16</v>
+      </c>
+      <c r="B68" s="2">
+        <v>53</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="4">
+        <v>6</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>16</v>
+      </c>
+      <c r="B69" s="2">
+        <v>53</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="4">
+        <v>8</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFA8DA-5E1D-4A4A-B1BD-280DEB06BD78}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE82C00-625E-944B-A08B-CBE34AC4DAE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -1188,8 +1188,8 @@
   <sheetPr codeName="Feuille1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>118</v>
@@ -1522,9 +1522,9 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:C69"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>83</v>
@@ -1619,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>95</v>
@@ -1628,7 +1628,9 @@
         <v>10</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>95</v>
@@ -1654,7 +1656,9 @@
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>56</v>
       </c>
@@ -3010,9 +3014,7 @@
         <v>11.5</v>
       </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -3038,9 +3040,7 @@
         <v>7.5</v>
       </c>
       <c r="H57" s="4"/>
-      <c r="I57" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE82C00-625E-944B-A08B-CBE34AC4DAE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1732E08-01A4-B64E-9CE4-04FD5B03453C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
   <si>
     <t>rivaz</t>
   </si>
@@ -443,6 +443,21 @@
   </si>
   <si>
     <t>muscadet sec</t>
+  </si>
+  <si>
+    <t>le landeron</t>
+  </si>
+  <si>
+    <t>chantal ritter cochand</t>
+  </si>
+  <si>
+    <t>chantal ritter</t>
+  </si>
+  <si>
+    <t>http://www.vinsrittercochand.ch</t>
+  </si>
+  <si>
+    <t>non filtré</t>
   </si>
 </sst>
 </file>
@@ -890,8 +905,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -904,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J69" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J69" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J72" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1186,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1474,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>126</v>
@@ -1489,6 +1504,23 @@
       </c>
       <c r="E17" s="7" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1506,11 +1538,12 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{41F41AFE-2241-9C44-BED9-379C872508C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1520,11 +1553,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2986,9 +3019,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="4"/>
-      <c r="I55" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I55" s="12"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -3118,9 +3149,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H60" s="4"/>
-      <c r="I60" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3198,9 +3227,7 @@
         <v>10.41</v>
       </c>
       <c r="H63" s="4"/>
-      <c r="I63" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I63" s="12"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3370,6 +3397,90 @@
         <v>114</v>
       </c>
       <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>17</v>
+      </c>
+      <c r="B70" s="2">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>17</v>
+      </c>
+      <c r="B71" s="2">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>17</v>
+      </c>
+      <c r="B72" s="2">
+        <v>54</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J72" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1732E08-01A4-B64E-9CE4-04FD5B03453C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B904A-21BA-6548-80AD-CC9F6785EEA4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
   <si>
     <t>rivaz</t>
   </si>
@@ -919,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J72" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J73" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>57</v>
@@ -1553,11 +1553,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1788,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
         <v>84</v>
       </c>
       <c r="E9" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G9" s="4">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="11"/>
@@ -1840,58 +1840,53 @@
         <v>26</v>
       </c>
       <c r="E10" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="4">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
       <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="4">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2">
         <v>2014</v>
@@ -1899,61 +1894,63 @@
       <c r="F12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>13</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="4">
-        <v>7.9</v>
-      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1961,13 +1958,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
         <v>2016</v>
@@ -1976,10 +1973,10 @@
         <v>83</v>
       </c>
       <c r="G15" s="4">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1987,13 +1984,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>2016</v>
@@ -2002,10 +1999,10 @@
         <v>83</v>
       </c>
       <c r="G16" s="4">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2013,51 +2010,51 @@
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G17" s="4">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2">
         <v>2016</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G18" s="4">
-        <v>7.1</v>
+        <v>11.1</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2065,25 +2062,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>2016</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2091,13 +2088,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
         <v>2016</v>
@@ -2106,36 +2103,36 @@
         <v>95</v>
       </c>
       <c r="G20" s="4">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>2016</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G21" s="4">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2143,22 +2140,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G22" s="4">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="11"/>
@@ -2169,22 +2166,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2">
         <v>2016</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4">
-        <v>17</v>
+        <v>11.3</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="11"/>
@@ -2192,16 +2189,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>2016</v>
@@ -2210,7 +2207,7 @@
         <v>83</v>
       </c>
       <c r="G24" s="4">
-        <v>10.1</v>
+        <v>17</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="11"/>
@@ -2221,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>2016</v>
@@ -2236,7 +2233,7 @@
         <v>83</v>
       </c>
       <c r="G25" s="4">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="11"/>
@@ -2247,13 +2244,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2">
         <v>2016</v>
@@ -2262,7 +2259,7 @@
         <v>83</v>
       </c>
       <c r="G26" s="4">
-        <v>12.7</v>
+        <v>10.9</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="11"/>
@@ -2273,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>2016</v>
@@ -2288,7 +2285,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="4">
-        <v>14</v>
+        <v>12.7</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="11"/>
@@ -2299,13 +2296,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>2016</v>
@@ -2314,24 +2311,24 @@
         <v>83</v>
       </c>
       <c r="G28" s="4">
-        <v>11.6</v>
+        <v>14</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2">
         <v>2016</v>
@@ -2340,10 +2337,10 @@
         <v>83</v>
       </c>
       <c r="G29" s="4">
-        <v>8.5</v>
+        <v>11.6</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2351,22 +2348,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
         <v>2016</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G30" s="4">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="11"/>
@@ -2377,22 +2374,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2">
         <v>2016</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G31" s="4">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="11"/>
@@ -2403,13 +2400,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2">
         <v>2016</v>
@@ -2418,36 +2415,36 @@
         <v>95</v>
       </c>
       <c r="G32" s="4">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2">
         <v>2016</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G33" s="4">
-        <v>6.5</v>
+        <v>12.51</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2455,13 +2452,13 @@
         <v>10</v>
       </c>
       <c r="B34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2">
         <v>2016</v>
@@ -2470,10 +2467,10 @@
         <v>83</v>
       </c>
       <c r="G34" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2481,13 +2478,13 @@
         <v>10</v>
       </c>
       <c r="B35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2">
         <v>2016</v>
@@ -2496,10 +2493,10 @@
         <v>83</v>
       </c>
       <c r="G35" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2507,25 +2504,25 @@
         <v>10</v>
       </c>
       <c r="B36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2">
         <v>2016</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G36" s="4">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2533,65 +2530,65 @@
         <v>10</v>
       </c>
       <c r="B37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2">
         <v>2016</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G37" s="4">
-        <v>8.5</v>
+        <v>8.01</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2">
         <v>2016</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G38" s="4">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>11</v>
       </c>
       <c r="B39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2">
         <v>2016</v>
@@ -2600,7 +2597,7 @@
         <v>83</v>
       </c>
       <c r="G39" s="4">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="11"/>
@@ -2611,22 +2608,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2">
         <v>2016</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G40" s="4">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="11"/>
@@ -2637,22 +2634,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G41" s="4">
-        <v>18</v>
+        <v>12.8</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="11"/>
@@ -2660,25 +2657,25 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G42" s="4">
-        <v>6.5</v>
+        <v>18</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="11"/>
@@ -2689,13 +2686,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="2">
         <v>2016</v>
@@ -2704,7 +2701,7 @@
         <v>83</v>
       </c>
       <c r="G43" s="4">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="11"/>
@@ -2715,13 +2712,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="2">
         <v>2016</v>
@@ -2730,7 +2727,7 @@
         <v>83</v>
       </c>
       <c r="G44" s="4">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="11"/>
@@ -2741,22 +2738,22 @@
         <v>12</v>
       </c>
       <c r="B45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G45" s="4">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="11"/>
@@ -2767,22 +2764,22 @@
         <v>12</v>
       </c>
       <c r="B46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G46" s="4">
-        <v>9.51</v>
+        <v>7.5</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="11"/>
@@ -2793,22 +2790,22 @@
         <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G47" s="4">
-        <v>10</v>
+        <v>9.51</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="11"/>
@@ -2819,22 +2816,22 @@
         <v>12</v>
       </c>
       <c r="B48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="4">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="11"/>
@@ -2845,13 +2842,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2">
         <v>2015</v>
@@ -2860,7 +2857,7 @@
         <v>95</v>
       </c>
       <c r="G49" s="4">
-        <v>13.51</v>
+        <v>13.5</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="11"/>
@@ -2871,22 +2868,22 @@
         <v>12</v>
       </c>
       <c r="B50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G50" s="4">
-        <v>8.5</v>
+        <v>13.51</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="11"/>
@@ -2894,25 +2891,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2">
         <v>2016</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G51" s="4">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="11"/>
@@ -2929,16 +2926,16 @@
         <v>110</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G52" s="4">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="11"/>
@@ -2955,7 +2952,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2">
         <v>2015</v>
@@ -2964,7 +2961,7 @@
         <v>83</v>
       </c>
       <c r="G53" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="11"/>
@@ -2981,16 +2978,16 @@
         <v>110</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G54" s="4">
-        <v>11.25</v>
+        <v>20</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="11"/>
@@ -2998,28 +2995,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G55" s="4">
-        <v>7</v>
+        <v>11.25</v>
       </c>
       <c r="H55" s="4"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -3033,16 +3030,16 @@
         <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G56" s="4">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="12"/>
@@ -3059,16 +3056,16 @@
         <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G57" s="4">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="12"/>
@@ -3085,16 +3082,16 @@
         <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G58" s="4">
-        <v>11.51</v>
+        <v>7.5</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="12"/>
@@ -3111,16 +3108,16 @@
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G59" s="4">
-        <v>11.52</v>
+        <v>11.51</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="12"/>
@@ -3128,25 +3125,25 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E60" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G60" s="4">
-        <v>9.1999999999999993</v>
+        <v>11.52</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="12"/>
@@ -3163,7 +3160,7 @@
         <v>127</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2">
         <v>2016</v>
@@ -3172,7 +3169,7 @@
         <v>83</v>
       </c>
       <c r="G61" s="4">
-        <v>10.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="12"/>
@@ -3189,7 +3186,7 @@
         <v>127</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E62" s="2">
         <v>2016</v>
@@ -3198,7 +3195,7 @@
         <v>83</v>
       </c>
       <c r="G62" s="4">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="12"/>
@@ -3215,16 +3212,16 @@
         <v>127</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2">
         <v>2016</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G63" s="4">
-        <v>10.41</v>
+        <v>12.7</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="12"/>
@@ -3232,30 +3229,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2">
         <v>2016</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G64" s="4">
-        <v>6</v>
+        <v>10.41</v>
       </c>
       <c r="H64" s="4"/>
-      <c r="I64" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I64" s="12"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -3269,7 +3264,7 @@
         <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2">
         <v>2016</v>
@@ -3278,7 +3273,7 @@
         <v>83</v>
       </c>
       <c r="G65" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="12" t="s">
@@ -3297,7 +3292,7 @@
         <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2">
         <v>2016</v>
@@ -3306,7 +3301,7 @@
         <v>83</v>
       </c>
       <c r="G66" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="12" t="s">
@@ -3325,16 +3320,16 @@
         <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2">
         <v>2016</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G67" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="12" t="s">
@@ -3353,13 +3348,13 @@
         <v>134</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2">
         <v>2016</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G68" s="4">
         <v>6</v>
@@ -3381,7 +3376,7 @@
         <v>134</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2">
         <v>2016</v>
@@ -3390,7 +3385,7 @@
         <v>95</v>
       </c>
       <c r="G69" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="12" t="s">
@@ -3400,25 +3395,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G70" s="4">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="12" t="s">
@@ -3434,7 +3429,7 @@
         <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -3462,25 +3457,53 @@
         <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E72" s="2">
         <v>2017</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G72" s="4">
-        <v>11.3</v>
+        <v>7.2</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="12" t="s">
         <v>114</v>
       </c>
       <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>17</v>
+      </c>
+      <c r="B73" s="2">
+        <v>54</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J73" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B904A-21BA-6548-80AD-CC9F6785EEA4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E53CE2-28D3-464F-986E-78DACB02AFF1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="143">
   <si>
     <t>rivaz</t>
   </si>
@@ -1557,7 +1557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>83</v>
@@ -1745,7 +1745,9 @@
         <v>10.5</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1771,7 +1773,9 @@
         <v>16</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E53CE2-28D3-464F-986E-78DACB02AFF1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588B1D9A-E21E-724F-9726-EF375E2B233F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
   <si>
     <t>rivaz</t>
   </si>
@@ -1556,8 +1556,8 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,7 +1801,9 @@
         <v>7.5</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1827,7 +1829,9 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1853,7 +1857,9 @@
         <v>10.7</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3271,13 +3277,13 @@
         <v>5</v>
       </c>
       <c r="E65" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G65" s="4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="12" t="s">
@@ -3299,13 +3305,13 @@
         <v>124</v>
       </c>
       <c r="E66" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G66" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="12" t="s">
@@ -3327,13 +3333,13 @@
         <v>137</v>
       </c>
       <c r="E67" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G67" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="12" t="s">
@@ -3355,13 +3361,13 @@
         <v>97</v>
       </c>
       <c r="E68" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="12" t="s">
@@ -3383,13 +3389,13 @@
         <v>108</v>
       </c>
       <c r="E69" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G69" s="4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="12" t="s">
@@ -3411,13 +3417,13 @@
         <v>8</v>
       </c>
       <c r="E70" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G70" s="4">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="12" t="s">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588B1D9A-E21E-724F-9726-EF375E2B233F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79641592-832E-9C41-8822-F9D4FEE20297}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="152">
   <si>
     <t>rivaz</t>
   </si>
@@ -458,6 +458,33 @@
   </si>
   <si>
     <t>non filtré</t>
+  </si>
+  <si>
+    <t>saint-prex</t>
+  </si>
+  <si>
+    <t>domaine terre-neuve</t>
+  </si>
+  <si>
+    <t>david kind</t>
+  </si>
+  <si>
+    <t>http://www.terreneuve.ch/index.php/fr/</t>
+  </si>
+  <si>
+    <t>blanc de lys</t>
+  </si>
+  <si>
+    <t>rosalys</t>
+  </si>
+  <si>
+    <t>rosé de gamay</t>
+  </si>
+  <si>
+    <t>gamalys</t>
+  </si>
+  <si>
+    <t>noir de lys</t>
   </si>
 </sst>
 </file>
@@ -905,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -919,8 +946,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J73" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1201,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1521,6 +1548,23 @@
       </c>
       <c r="E18" s="8" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1553,11 +1597,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3515,6 +3559,118 @@
       </c>
       <c r="J73" s="2"/>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>18</v>
+      </c>
+      <c r="B74" s="2">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="4">
+        <v>7</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2">
+        <v>55</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75" s="4">
+        <v>8</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>18</v>
+      </c>
+      <c r="B76" s="2">
+        <v>55</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="4">
+        <v>8</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>18</v>
+      </c>
+      <c r="B77" s="2">
+        <v>55</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79641592-832E-9C41-8822-F9D4FEE20297}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F331A28-49A2-A449-8D82-C1495168985D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,8 +1600,8 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3439,7 +3439,7 @@
         <v>95</v>
       </c>
       <c r="G69" s="4">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="12" t="s">
@@ -3523,7 +3523,7 @@
         <v>83</v>
       </c>
       <c r="G72" s="4">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="12" t="s">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F331A28-49A2-A449-8D82-C1495168985D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F7630-DE68-4F43-8713-5197C261C0E2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1601,7 +1601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3635,7 +3635,7 @@
         <v>95</v>
       </c>
       <c r="G76" s="4">
-        <v>8</v>
+        <v>8.01</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="12" t="s">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F7630-DE68-4F43-8713-5197C261C0E2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB40CF0-7615-8547-B4BA-FBA79633EA6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="157">
   <si>
     <t>rivaz</t>
   </si>
@@ -485,6 +485,21 @@
   </si>
   <si>
     <t>noir de lys</t>
+  </si>
+  <si>
+    <t>ollon</t>
+  </si>
+  <si>
+    <t>domaine la combaz</t>
+  </si>
+  <si>
+    <t>emile blum</t>
+  </si>
+  <si>
+    <t>http://deuxfoiscinq.ch/blog/combaz/</t>
+  </si>
+  <si>
+    <t>œil de perdrix</t>
   </si>
 </sst>
 </file>
@@ -932,8 +947,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -946,8 +961,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1228,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="C1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1565,6 +1580,23 @@
       </c>
       <c r="E19" s="7" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1597,11 +1629,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3671,6 +3703,118 @@
       </c>
       <c r="J77" s="2"/>
     </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>19</v>
+      </c>
+      <c r="B78" s="2">
+        <v>56</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>19</v>
+      </c>
+      <c r="B79" s="2">
+        <v>56</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G79" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>19</v>
+      </c>
+      <c r="B80" s="2">
+        <v>56</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="4">
+        <v>19</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>19</v>
+      </c>
+      <c r="B81" s="2">
+        <v>56</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB40CF0-7615-8547-B4BA-FBA79633EA6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E6A207-5D66-E941-B211-1BBAE784E1FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3751,7 +3751,7 @@
         <v>97</v>
       </c>
       <c r="G79" s="4">
-        <v>10.5</v>
+        <v>10.51</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="12" t="s">

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E6A207-5D66-E941-B211-1BBAE784E1FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2756A41-2D2F-1E4C-8809-0B591FADD057}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="156">
   <si>
     <t>rivaz</t>
   </si>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>http://www.scexduchatelard.ch</t>
-  </si>
-  <si>
-    <t>chasslas</t>
   </si>
   <si>
     <t>viognier</t>
@@ -1536,16 +1533,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1553,16 +1550,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1570,16 +1567,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1587,16 +1584,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1632,8 +1629,8 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3246,7 +3243,7 @@
         <v>127</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="E61" s="2">
         <v>2016</v>
@@ -3298,7 +3295,7 @@
         <v>127</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2">
         <v>2016</v>
@@ -3324,7 +3321,7 @@
         <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2">
         <v>2016</v>
@@ -3347,7 +3344,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -3375,7 +3372,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>124</v>
@@ -3403,10 +3400,10 @@
         <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2">
         <v>2017</v>
@@ -3431,7 +3428,7 @@
         <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>97</v>
@@ -3459,7 +3456,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>108</v>
@@ -3487,7 +3484,7 @@
         <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>8</v>
@@ -3515,7 +3512,7 @@
         <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -3543,7 +3540,7 @@
         <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -3599,7 +3596,7 @@
         <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -3627,10 +3624,10 @@
         <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E75" s="2">
         <v>2017</v>
@@ -3655,7 +3652,7 @@
         <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>108</v>
@@ -3683,7 +3680,7 @@
         <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
@@ -3711,7 +3708,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>5</v>
@@ -3739,10 +3736,10 @@
         <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" s="2">
         <v>2017</v>
@@ -3767,10 +3764,10 @@
         <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2">
         <v>2016</v>
@@ -3795,7 +3792,7 @@
         <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2756A41-2D2F-1E4C-8809-0B591FADD057}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C62C9-5B34-5445-865F-87A67FF2C852}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="160">
   <si>
     <t>rivaz</t>
   </si>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t>œil de perdrix</t>
+  </si>
+  <si>
+    <t>domaine de gourmandaz</t>
+  </si>
+  <si>
+    <t>didier bourgeois</t>
+  </si>
+  <si>
+    <t>http://www.gourmandaz.ch</t>
+  </si>
+  <si>
+    <t>garanoir</t>
   </si>
 </sst>
 </file>
@@ -944,8 +956,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -958,8 +970,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1240,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1542,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>132</v>
@@ -1547,7 +1559,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>137</v>
@@ -1594,6 +1606,23 @@
       </c>
       <c r="E20" s="7" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1612,11 +1641,12 @@
     <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="E18" r:id="rId13" xr:uid="{41F41AFE-2241-9C44-BED9-379C872508C4}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{1C0C5D8F-E421-8546-98B4-065F4A69FD50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1626,11 +1656,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3359,9 +3389,7 @@
         <v>6.5</v>
       </c>
       <c r="H65" s="4"/>
-      <c r="I65" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3387,9 +3415,7 @@
         <v>9</v>
       </c>
       <c r="H66" s="4"/>
-      <c r="I66" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I66" s="12"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3415,9 +3441,7 @@
         <v>10</v>
       </c>
       <c r="H67" s="4"/>
-      <c r="I67" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I67" s="12"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -3443,9 +3467,7 @@
         <v>7</v>
       </c>
       <c r="H68" s="4"/>
-      <c r="I68" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I68" s="12"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -3471,9 +3493,7 @@
         <v>6.51</v>
       </c>
       <c r="H69" s="4"/>
-      <c r="I69" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I69" s="12"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3499,9 +3519,7 @@
         <v>9.5</v>
       </c>
       <c r="H70" s="4"/>
-      <c r="I70" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I70" s="12"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3527,9 +3545,7 @@
         <v>7.2</v>
       </c>
       <c r="H71" s="4"/>
-      <c r="I71" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I71" s="12"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3555,9 +3571,7 @@
         <v>7.21</v>
       </c>
       <c r="H72" s="4"/>
-      <c r="I72" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I72" s="12"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3583,9 +3597,7 @@
         <v>11.3</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I73" s="12"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3811,6 +3823,118 @@
         <v>114</v>
       </c>
       <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>20</v>
+      </c>
+      <c r="B82" s="2">
+        <v>57</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>20</v>
+      </c>
+      <c r="B83" s="2">
+        <v>57</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>20</v>
+      </c>
+      <c r="B84" s="2">
+        <v>57</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="4">
+        <v>9.91</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2">
+        <v>57</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" s="4">
+        <v>9.92</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J85" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C62C9-5B34-5445-865F-87A67FF2C852}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC47B33-84C5-8346-A551-2A239DB0D7EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="168">
   <si>
     <t>rivaz</t>
   </si>
@@ -509,6 +509,30 @@
   </si>
   <si>
     <t>garanoir</t>
+  </si>
+  <si>
+    <t>valais</t>
+  </si>
+  <si>
+    <t>cave caloz</t>
+  </si>
+  <si>
+    <t>sandrine caloz</t>
+  </si>
+  <si>
+    <t>http://www.cavecaloz.ch</t>
+  </si>
+  <si>
+    <t>fendant</t>
+  </si>
+  <si>
+    <t>miège</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petite arvine </t>
+  </si>
+  <si>
+    <t>humagne rouge</t>
   </si>
 </sst>
 </file>
@@ -956,8 +980,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -970,8 +994,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J89" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1252,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,6 +1647,23 @@
       </c>
       <c r="E21" s="8" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1656,11 +1697,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:C85"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3936,6 +3977,116 @@
       </c>
       <c r="J85" s="2"/>
     </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>21</v>
+      </c>
+      <c r="B86" s="2">
+        <v>58</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>21</v>
+      </c>
+      <c r="B87" s="2">
+        <v>58</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>21</v>
+      </c>
+      <c r="B88" s="2">
+        <v>58</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>21</v>
+      </c>
+      <c r="B89" s="2">
+        <v>58</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="4">
+        <v>14.51</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC47B33-84C5-8346-A551-2A239DB0D7EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4698617-C850-D744-A15F-14E57C79FB25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
   <si>
     <t>rivaz</t>
   </si>
@@ -1700,8 +1700,8 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:C89"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4084,7 +4084,9 @@
         <v>14.51</v>
       </c>
       <c r="H89" s="4"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="J89" s="2"/>
     </row>
   </sheetData>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4698617-C850-D744-A15F-14E57C79FB25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E7F3E-C459-2348-BFB3-D6B6CF19B09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
   <si>
     <t>rivaz</t>
   </si>
@@ -533,6 +533,30 @@
   </si>
   <si>
     <t>humagne rouge</t>
+  </si>
+  <si>
+    <t>neuchâtel</t>
+  </si>
+  <si>
+    <t>domaine des balises</t>
+  </si>
+  <si>
+    <t>pierre-rené nicolet</t>
+  </si>
+  <si>
+    <t>https://www.nicoletvins.ch</t>
+  </si>
+  <si>
+    <t>bevaix</t>
+  </si>
+  <si>
+    <t>chasselas les balises</t>
+  </si>
+  <si>
+    <t>oeil de perdrix</t>
+  </si>
+  <si>
+    <t>pinot noir excellence</t>
   </si>
 </sst>
 </file>
@@ -980,8 +1004,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -994,8 +1018,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J89" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1276,10 +1300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,6 +1688,23 @@
       </c>
       <c r="E22" s="7" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1697,11 +1738,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3664,9 +3705,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I74" s="12"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3692,9 +3731,7 @@
         <v>8</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I75" s="12"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3720,9 +3757,7 @@
         <v>8.01</v>
       </c>
       <c r="H76" s="4"/>
-      <c r="I76" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I76" s="12"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3748,9 +3783,7 @@
         <v>9.5</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I77" s="12"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4088,6 +4121,118 @@
         <v>114</v>
       </c>
       <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>22</v>
+      </c>
+      <c r="B90" s="2">
+        <v>59</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="4">
+        <v>6</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>22</v>
+      </c>
+      <c r="B91" s="2">
+        <v>59</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>22</v>
+      </c>
+      <c r="B92" s="2">
+        <v>59</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" s="4">
+        <v>14</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>22</v>
+      </c>
+      <c r="B93" s="2">
+        <v>59</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" s="4">
+        <v>15</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J93" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E7F3E-C459-2348-BFB3-D6B6CF19B09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE16D06-6D72-FC49-9201-3C632DB9961B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="180">
   <si>
     <t>rivaz</t>
   </si>
@@ -557,6 +557,18 @@
   </si>
   <si>
     <t>pinot noir excellence</t>
+  </si>
+  <si>
+    <t>perroy</t>
+  </si>
+  <si>
+    <t>domaine du feuillerage</t>
+  </si>
+  <si>
+    <t>cédric gaillard</t>
+  </si>
+  <si>
+    <t>http://www.feuillerage.ch</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -1018,8 +1030,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J97" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1300,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A3" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,6 +1717,23 @@
       </c>
       <c r="E23" s="7" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1738,11 +1767,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3809,9 +3838,7 @@
         <v>10.5</v>
       </c>
       <c r="H78" s="4"/>
-      <c r="I78" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I78" s="12"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3837,9 +3864,7 @@
         <v>10.51</v>
       </c>
       <c r="H79" s="4"/>
-      <c r="I79" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I79" s="12"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3865,9 +3890,7 @@
         <v>19</v>
       </c>
       <c r="H80" s="4"/>
-      <c r="I80" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I80" s="12"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3893,9 +3916,7 @@
         <v>11.5</v>
       </c>
       <c r="H81" s="4"/>
-      <c r="I81" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I81" s="12"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3921,9 +3942,7 @@
         <v>7.2</v>
       </c>
       <c r="H82" s="4"/>
-      <c r="I82" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I82" s="12"/>
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3949,9 +3968,7 @@
         <v>9.9</v>
       </c>
       <c r="H83" s="4"/>
-      <c r="I83" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I83" s="12"/>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3977,9 +3994,7 @@
         <v>9.91</v>
       </c>
       <c r="H84" s="4"/>
-      <c r="I84" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I84" s="12"/>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4005,9 +4020,7 @@
         <v>9.92</v>
       </c>
       <c r="H85" s="4"/>
-      <c r="I85" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="I85" s="12"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -4233,6 +4246,96 @@
         <v>114</v>
       </c>
       <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2">
+        <v>60</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2">
+        <v>60</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="4">
+        <v>9</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>23</v>
+      </c>
+      <c r="B96" s="2">
+        <v>60</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" s="4">
+        <v>11</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE16D06-6D72-FC49-9201-3C632DB9961B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F58AC-088E-A64F-9D26-0D1A240E19C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIGNERONS" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="187">
   <si>
     <t>rivaz</t>
   </si>
@@ -569,6 +569,27 @@
   </si>
   <si>
     <t>http://www.feuillerage.ch</t>
+  </si>
+  <si>
+    <t>vevey</t>
+  </si>
+  <si>
+    <t>cave mayor</t>
+  </si>
+  <si>
+    <t>adeline et jean-philippe mayor</t>
+  </si>
+  <si>
+    <t>http://www.lacavemayor.ch</t>
+  </si>
+  <si>
+    <t>vevey grand cru</t>
+  </si>
+  <si>
+    <t>la bourrache</t>
+  </si>
+  <si>
+    <t>saint saphorin</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1037,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -1030,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J97" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J100" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1312,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A13" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,6 +1755,23 @@
       </c>
       <c r="E24" s="7" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1753,11 +1791,12 @@
     <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="E18" r:id="rId13" xr:uid="{41F41AFE-2241-9C44-BED9-379C872508C4}"/>
     <hyperlink ref="E21" r:id="rId14" xr:uid="{1C0C5D8F-E421-8546-98B4-065F4A69FD50}"/>
+    <hyperlink ref="E25" r:id="rId15" xr:uid="{43C35B02-AC83-5C4B-882D-41D9DB922D7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1767,11 +1806,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B96"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4331,11 +4370,117 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G97" s="4"/>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>24</v>
+      </c>
+      <c r="B97" s="2">
+        <v>61</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="4">
+        <v>9.5</v>
+      </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="12"/>
+      <c r="I97" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>24</v>
+      </c>
+      <c r="B98" s="2">
+        <v>61</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>24</v>
+      </c>
+      <c r="B99" s="2">
+        <v>61</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" s="4">
+        <v>13</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>24</v>
+      </c>
+      <c r="B100" s="2">
+        <v>61</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G100" s="4">
+        <v>12</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J100" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
+++ b/la-cave-de-deuxfoiscinq/carte-des-vins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steiner/Desktop/STEINER/3 -BLOG - VIN/deuxfoiscinq/la-cave-de-deuxfoiscinq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F58AC-088E-A64F-9D26-0D1A240E19C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D01FB2-3E72-FD49-8A78-70277FACAE27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="194">
   <si>
     <t>rivaz</t>
   </si>
@@ -590,6 +590,27 @@
   </si>
   <si>
     <t>saint saphorin</t>
+  </si>
+  <si>
+    <t>dardagny</t>
+  </si>
+  <si>
+    <t>domaine les hutins</t>
+  </si>
+  <si>
+    <t>emilienne hutin</t>
+  </si>
+  <si>
+    <t>http://domaineleshutins.ch</t>
+  </si>
+  <si>
+    <t>chardonnay 1er cru</t>
+  </si>
+  <si>
+    <t>gamay la briva</t>
+  </si>
+  <si>
+    <t>bertholier rouge</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1058,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:E25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A1:E26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:E26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_VIGNERON" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOMAINE" dataDxfId="15"/>
@@ -1051,8 +1072,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J100" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A1:J104" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J104" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID_VIGNERON" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID_VIN" dataDxfId="8"/>
@@ -1333,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuille1"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A11" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,6 +1793,23 @@
       </c>
       <c r="E25" s="8" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1806,11 +1844,11 @@
   <sheetPr codeName="Feuille2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="169" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4482,6 +4520,118 @@
       </c>
       <c r="J100" s="2"/>
     </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>25</v>
+      </c>
+      <c r="B101" s="2">
+        <v>62</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G101" s="4">
+        <v>7</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>25</v>
+      </c>
+      <c r="B102" s="2">
+        <v>62</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G102" s="4">
+        <v>11</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>25</v>
+      </c>
+      <c r="B103" s="2">
+        <v>62</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>25</v>
+      </c>
+      <c r="B104" s="2">
+        <v>62</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G104" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J104" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
